--- a/src/main/java/com/ghana/app/qa/testdata/GhanaVisaTestData1.xlsx
+++ b/src/main/java/com/ghana/app/qa/testdata/GhanaVisaTestData1.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="360" windowWidth="18915" windowHeight="6945" activeTab="4"/>
+    <workbookView xWindow="480" yWindow="360" windowWidth="18915" windowHeight="6945" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="SignUp" sheetId="1" r:id="rId1"/>
@@ -12,13 +12,14 @@
     <sheet name="AddressInfo" sheetId="3" r:id="rId3"/>
     <sheet name="EmergencyContact" sheetId="4" r:id="rId4"/>
     <sheet name="TravelInfo" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="403">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="758" uniqueCount="425">
   <si>
     <t>Visa_Type</t>
   </si>
@@ -1227,6 +1228,72 @@
   </si>
   <si>
     <t>Ampofo</t>
+  </si>
+  <si>
+    <t>Title/Action</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Description of Action/Title</t>
+  </si>
+  <si>
+    <t>Home</t>
+  </si>
+  <si>
+    <t>Title of Home page after launching the browser</t>
+  </si>
+  <si>
+    <t>Click on Apply Visa from Home</t>
+  </si>
+  <si>
+    <t>Visa Types</t>
+  </si>
+  <si>
+    <t>Title of Visa Category page after click on Apply Visa</t>
+  </si>
+  <si>
+    <t>VISA CATEGORIES</t>
+  </si>
+  <si>
+    <t>Visa Categories text from Visa Type page</t>
+  </si>
+  <si>
+    <t>Sign Up</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Title of sign up page </t>
+  </si>
+  <si>
+    <t>Select passport type</t>
+  </si>
+  <si>
+    <t>Select Natinality  type</t>
+  </si>
+  <si>
+    <t>Select Port of Arrival</t>
+  </si>
+  <si>
+    <t>transit visa fees1 INR.2000.0</t>
+  </si>
+  <si>
+    <t>Select visa fee</t>
+  </si>
+  <si>
+    <t>Select Visa Location</t>
+  </si>
+  <si>
+    <t>sachin.patil.uk@gmail.com</t>
+  </si>
+  <si>
+    <t>Pass the phone number</t>
+  </si>
+  <si>
+    <t>Pass the email id</t>
+  </si>
+  <si>
+    <t>Pass the Re-email id</t>
   </si>
 </sst>
 </file>
@@ -1239,7 +1306,7 @@
     <numFmt numFmtId="166" formatCode="00000"/>
     <numFmt numFmtId="167" formatCode="0;[Red]0"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1251,6 +1318,22 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF666666"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1283,7 +1366,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -1297,6 +1380,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3596,7 +3686,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
@@ -4611,4 +4701,144 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="43.85546875" customWidth="1"/>
+    <col min="2" max="2" width="25.28515625" customWidth="1"/>
+    <col min="3" max="3" width="49.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>403</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>404</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>406</v>
+      </c>
+      <c r="C2" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>408</v>
+      </c>
+      <c r="C3" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>409</v>
+      </c>
+      <c r="C4" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>411</v>
+      </c>
+      <c r="C5" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>413</v>
+      </c>
+      <c r="C6" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
+        <v>418</v>
+      </c>
+      <c r="C10" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C11" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="13">
+        <v>7507680723</v>
+      </c>
+      <c r="C12" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="C13" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="C14" t="s">
+        <v>424</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A13" r:id="rId1"/>
+    <hyperlink ref="A14" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
+</worksheet>
 </file>
--- a/src/main/java/com/ghana/app/qa/testdata/GhanaVisaTestData1.xlsx
+++ b/src/main/java/com/ghana/app/qa/testdata/GhanaVisaTestData1.xlsx
@@ -12,14 +12,14 @@
     <sheet name="AddressInfo" sheetId="3" r:id="rId3"/>
     <sheet name="EmergencyContact" sheetId="4" r:id="rId4"/>
     <sheet name="TravelInfo" sheetId="5" r:id="rId5"/>
-    <sheet name="Sheet1" sheetId="6" r:id="rId6"/>
+    <sheet name="SignUp1" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="758" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="442">
   <si>
     <t>Visa_Type</t>
   </si>
@@ -1294,6 +1294,59 @@
   </si>
   <si>
     <t>Pass the Re-email id</t>
+  </si>
+  <si>
+    <t>7507680723</t>
+  </si>
+  <si>
+    <t>17/06/1993</t>
+  </si>
+  <si>
+    <t>Personal Information</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on "Continue" Button from signup page </t>
+  </si>
+  <si>
+    <t>Applicant Form</t>
+  </si>
+  <si>
+    <t>Text of Personal Information page after clicking on Continue from 
+SignUp Page</t>
+  </si>
+  <si>
+    <t>Pass the Birth date</t>
+  </si>
+  <si>
+    <t>Title of Personal Information page after clicking on Continue from 
+SignUp Page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Application ID </t>
+  </si>
+  <si>
+    <t>Application ID is after SignUp</t>
+  </si>
+  <si>
+    <t>Rakesh</t>
+  </si>
+  <si>
+    <t>Mohan</t>
+  </si>
+  <si>
+    <t>Patil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pass the first name </t>
+  </si>
+  <si>
+    <t>Pass the middel name</t>
+  </si>
+  <si>
+    <t>Pass the last name</t>
+  </si>
+  <si>
+    <t>PASS</t>
   </si>
 </sst>
 </file>
@@ -1306,7 +1359,7 @@
     <numFmt numFmtId="166" formatCode="00000"/>
     <numFmt numFmtId="167" formatCode="0;[Red]0"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1339,7 +1392,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1349,6 +1402,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1366,7 +1437,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -1384,8 +1455,23 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1697,13 +1783,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" customWidth="1"/>
-    <col min="2" max="2" width="28.5703125" customWidth="1"/>
-    <col min="3" max="3" width="23.28515625" customWidth="1"/>
-    <col min="4" max="4" width="22.140625" customWidth="1"/>
-    <col min="5" max="5" width="17.85546875" customWidth="1"/>
-    <col min="6" max="6" width="19" style="3" customWidth="1"/>
-    <col min="7" max="7" width="29.42578125" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="28.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="23.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="22.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="3" width="19.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="29.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -2035,15 +2121,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="54.7109375" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" customWidth="1"/>
-    <col min="5" max="5" width="20" style="10" customWidth="1"/>
-    <col min="6" max="6" width="16.28515625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="15.5703125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" customWidth="1"/>
-    <col min="9" max="9" width="11.28515625" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="54.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="14.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="10.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="10" width="20.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="3" width="16.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="3" width="15.5703125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="11.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -2443,15 +2529,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="10.85546875" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" customWidth="1"/>
-    <col min="5" max="5" width="20.5703125" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" customWidth="1"/>
-    <col min="8" max="8" width="19" customWidth="1"/>
-    <col min="11" max="11" width="8.28515625" customWidth="1"/>
-    <col min="12" max="12" width="12.140625" customWidth="1"/>
-    <col min="13" max="13" width="13.140625" customWidth="1"/>
+    <col min="3" max="3" customWidth="true" width="10.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="9.42578125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="20.5703125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="14.5703125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="8.28515625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="13.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -3056,13 +3142,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.7109375" customWidth="1"/>
-    <col min="2" max="2" width="20.28515625" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" customWidth="1"/>
-    <col min="5" max="5" width="22.28515625" style="6" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="7"/>
-    <col min="15" max="15" width="10.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="7.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="20.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="6" width="22.28515625" collapsed="true"/>
+    <col min="11" max="11" style="7" width="9.140625" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" style="3" width="10.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
@@ -3692,9 +3778,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="7" width="14.42578125" customWidth="1"/>
-    <col min="8" max="9" width="17.5703125" customWidth="1"/>
-    <col min="10" max="10" width="13" customWidth="1"/>
+    <col min="7" max="7" customWidth="true" width="14.42578125" collapsed="true"/>
+    <col min="8" max="9" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="13.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
@@ -4705,27 +4791,28 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="43.85546875" customWidth="1"/>
-    <col min="2" max="2" width="25.28515625" customWidth="1"/>
-    <col min="3" max="3" width="49.140625" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="43.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="25.28515625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="60.42578125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="9.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="15" t="s">
         <v>403</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="16" t="s">
         <v>404</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="17" t="s">
         <v>405</v>
       </c>
     </row>
@@ -4765,6 +4852,9 @@
       <c r="A6" t="s">
         <v>413</v>
       </c>
+      <c r="B6" t="s">
+        <v>441</v>
+      </c>
       <c r="C6" t="s">
         <v>414</v>
       </c>
@@ -4773,6 +4863,9 @@
       <c r="A7" t="s">
         <v>16</v>
       </c>
+      <c r="B7" t="s">
+        <v>441</v>
+      </c>
       <c r="C7" t="s">
         <v>415</v>
       </c>
@@ -4781,6 +4874,9 @@
       <c r="A8" t="s">
         <v>18</v>
       </c>
+      <c r="B8" t="s">
+        <v>441</v>
+      </c>
       <c r="C8" t="s">
         <v>416</v>
       </c>
@@ -4789,6 +4885,9 @@
       <c r="A9" s="12" t="s">
         <v>26</v>
       </c>
+      <c r="B9" t="s">
+        <v>441</v>
+      </c>
       <c r="C9" t="s">
         <v>417</v>
       </c>
@@ -4797,6 +4896,9 @@
       <c r="A10" s="12" t="s">
         <v>418</v>
       </c>
+      <c r="B10" t="s">
+        <v>441</v>
+      </c>
       <c r="C10" t="s">
         <v>419</v>
       </c>
@@ -4805,13 +4907,19 @@
       <c r="A11" t="s">
         <v>70</v>
       </c>
+      <c r="B11" t="s">
+        <v>441</v>
+      </c>
       <c r="C11" t="s">
         <v>420</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="13">
-        <v>7507680723</v>
+      <c r="A12" s="14" t="s">
+        <v>425</v>
+      </c>
+      <c r="B12" t="s">
+        <v>441</v>
       </c>
       <c r="C12" t="s">
         <v>422</v>
@@ -4821,6 +4929,9 @@
       <c r="A13" s="4" t="s">
         <v>421</v>
       </c>
+      <c r="B13" t="s">
+        <v>441</v>
+      </c>
       <c r="C13" t="s">
         <v>423</v>
       </c>
@@ -4829,8 +4940,96 @@
       <c r="A14" s="4" t="s">
         <v>421</v>
       </c>
+      <c r="B14" t="s">
+        <v>441</v>
+      </c>
       <c r="C14" t="s">
         <v>424</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="13" t="s">
+        <v>426</v>
+      </c>
+      <c r="B15" t="s">
+        <v>441</v>
+      </c>
+      <c r="C15" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="13" t="s">
+        <v>428</v>
+      </c>
+      <c r="B16" t="s">
+        <v>441</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>427</v>
+      </c>
+      <c r="B17" t="s">
+        <v>441</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>429</v>
+      </c>
+      <c r="B18" t="s">
+        <v>441</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>433</v>
+      </c>
+      <c r="B19" t="s">
+        <v>441</v>
+      </c>
+      <c r="C19" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>435</v>
+      </c>
+      <c r="B20" t="s">
+        <v>441</v>
+      </c>
+      <c r="C20" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>436</v>
+      </c>
+      <c r="B21" t="s">
+        <v>441</v>
+      </c>
+      <c r="C21" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>437</v>
+      </c>
+      <c r="C22" t="s">
+        <v>440</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/java/com/ghana/app/qa/testdata/GhanaVisaTestData1.xlsx
+++ b/src/main/java/com/ghana/app/qa/testdata/GhanaVisaTestData1.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="360" windowWidth="18915" windowHeight="6945" activeTab="5"/>
+    <workbookView xWindow="480" yWindow="360" windowWidth="18915" windowHeight="6945" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="SignUp" sheetId="1" r:id="rId1"/>
@@ -13,13 +13,14 @@
     <sheet name="EmergencyContact" sheetId="4" r:id="rId4"/>
     <sheet name="TravelInfo" sheetId="5" r:id="rId5"/>
     <sheet name="SignUp1" sheetId="6" r:id="rId6"/>
+    <sheet name="PersonalInfo1" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="442">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="450">
   <si>
     <t>Visa_Type</t>
   </si>
@@ -1344,6 +1345,30 @@
   </si>
   <si>
     <t>Pass the last name</t>
+  </si>
+  <si>
+    <t>PA1234N</t>
+  </si>
+  <si>
+    <t>Pass the  passport number</t>
+  </si>
+  <si>
+    <t>25/06/2026</t>
+  </si>
+  <si>
+    <t>Nagpur</t>
+  </si>
+  <si>
+    <t>Pass the passport Issued date</t>
+  </si>
+  <si>
+    <t>Pass the passport Expiry date</t>
+  </si>
+  <si>
+    <t>Pass the place of Birth</t>
+  </si>
+  <si>
+    <t>20/05/2019</t>
   </si>
   <si>
     <t>PASS</t>
@@ -1359,7 +1384,7 @@
     <numFmt numFmtId="166" formatCode="00000"/>
     <numFmt numFmtId="167" formatCode="0;[Red]0"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1783,13 +1808,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="17.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="28.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="23.28515625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="22.140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="17.85546875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="3" width="19.0" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="29.42578125" collapsed="true"/>
+    <col min="1" max="1" width="17.85546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="28.5703125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="23.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="22.140625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="17.85546875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="19" style="3" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="29.42578125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -2121,15 +2146,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="54.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="14.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="10.85546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="10" width="20.0" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="3" width="16.28515625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="3" width="15.5703125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="13.42578125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="1" max="1" width="54.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="14.42578125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="10.85546875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="20" style="10" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="16.28515625" style="3" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="15.5703125" style="3" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="13.42578125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="11.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -2529,15 +2554,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" customWidth="true" width="10.85546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="9.42578125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="20.5703125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="14.5703125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="13.140625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="8.28515625" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="12.140625" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="3" max="3" width="10.85546875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="9.42578125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="20.5703125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="14.5703125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="13.140625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="19" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="8.28515625" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="12.140625" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="13.140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -3142,13 +3167,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="7.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="20.28515625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="11.85546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="15.7109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="6" width="22.28515625" collapsed="true"/>
-    <col min="11" max="11" style="7" width="9.140625" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" style="3" width="10.7109375" collapsed="true"/>
+    <col min="1" max="1" width="7.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="20.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.85546875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15.7109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="22.28515625" style="6" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="9.140625" style="7" collapsed="1"/>
+    <col min="15" max="15" width="10.7109375" style="3" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
@@ -3778,9 +3803,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="7" customWidth="true" width="14.42578125" collapsed="true"/>
-    <col min="8" max="9" customWidth="true" width="17.5703125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="7" max="7" width="14.42578125" customWidth="1" collapsed="1"/>
+    <col min="8" max="9" width="17.5703125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="13" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
@@ -4791,18 +4816,18 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="43.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="25.28515625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="60.42578125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="9.85546875" collapsed="true"/>
+    <col min="1" max="1" width="43.85546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="25.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="60.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="9.85546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -4852,9 +4877,6 @@
       <c r="A6" t="s">
         <v>413</v>
       </c>
-      <c r="B6" t="s">
-        <v>441</v>
-      </c>
       <c r="C6" t="s">
         <v>414</v>
       </c>
@@ -4863,9 +4885,6 @@
       <c r="A7" t="s">
         <v>16</v>
       </c>
-      <c r="B7" t="s">
-        <v>441</v>
-      </c>
       <c r="C7" t="s">
         <v>415</v>
       </c>
@@ -4874,9 +4893,6 @@
       <c r="A8" t="s">
         <v>18</v>
       </c>
-      <c r="B8" t="s">
-        <v>441</v>
-      </c>
       <c r="C8" t="s">
         <v>416</v>
       </c>
@@ -4885,9 +4901,6 @@
       <c r="A9" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B9" t="s">
-        <v>441</v>
-      </c>
       <c r="C9" t="s">
         <v>417</v>
       </c>
@@ -4896,9 +4909,6 @@
       <c r="A10" s="12" t="s">
         <v>418</v>
       </c>
-      <c r="B10" t="s">
-        <v>441</v>
-      </c>
       <c r="C10" t="s">
         <v>419</v>
       </c>
@@ -4907,9 +4917,6 @@
       <c r="A11" t="s">
         <v>70</v>
       </c>
-      <c r="B11" t="s">
-        <v>441</v>
-      </c>
       <c r="C11" t="s">
         <v>420</v>
       </c>
@@ -4918,9 +4925,6 @@
       <c r="A12" s="14" t="s">
         <v>425</v>
       </c>
-      <c r="B12" t="s">
-        <v>441</v>
-      </c>
       <c r="C12" t="s">
         <v>422</v>
       </c>
@@ -4929,9 +4933,6 @@
       <c r="A13" s="4" t="s">
         <v>421</v>
       </c>
-      <c r="B13" t="s">
-        <v>441</v>
-      </c>
       <c r="C13" t="s">
         <v>423</v>
       </c>
@@ -4940,9 +4941,6 @@
       <c r="A14" s="4" t="s">
         <v>421</v>
       </c>
-      <c r="B14" t="s">
-        <v>441</v>
-      </c>
       <c r="C14" t="s">
         <v>424</v>
       </c>
@@ -4951,86 +4949,25 @@
       <c r="A15" s="13" t="s">
         <v>426</v>
       </c>
-      <c r="B15" t="s">
-        <v>441</v>
-      </c>
       <c r="C15" t="s">
         <v>431</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="13" t="s">
-        <v>428</v>
-      </c>
-      <c r="B16" t="s">
-        <v>441</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>427</v>
-      </c>
-      <c r="B17" t="s">
-        <v>441</v>
-      </c>
-      <c r="C17" s="18" t="s">
-        <v>430</v>
-      </c>
+      <c r="A16" s="13"/>
+      <c r="C16" s="13"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C17" s="18"/>
     </row>
     <row r="18" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>429</v>
-      </c>
-      <c r="B18" t="s">
-        <v>441</v>
-      </c>
-      <c r="C18" s="18" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>433</v>
-      </c>
-      <c r="B19" t="s">
-        <v>441</v>
-      </c>
-      <c r="C19" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>435</v>
-      </c>
-      <c r="B20" t="s">
-        <v>441</v>
-      </c>
-      <c r="C20" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>436</v>
-      </c>
-      <c r="B21" t="s">
-        <v>441</v>
-      </c>
-      <c r="C21" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>437</v>
-      </c>
-      <c r="C22" t="s">
-        <v>440</v>
-      </c>
+      <c r="C18" s="18"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="13"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="13"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -5040,4 +4977,157 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="42" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11.42578125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="60.42578125" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
+        <v>403</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>404</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>405</v>
+      </c>
+      <c r="D1" s="11"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>428</v>
+      </c>
+      <c r="B2" t="s">
+        <v>449</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>427</v>
+      </c>
+      <c r="B3" t="s">
+        <v>449</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>429</v>
+      </c>
+      <c r="B4" t="s">
+        <v>449</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>433</v>
+      </c>
+      <c r="B5" t="s">
+        <v>449</v>
+      </c>
+      <c r="C5" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>435</v>
+      </c>
+      <c r="B6" t="s">
+        <v>449</v>
+      </c>
+      <c r="C6" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>436</v>
+      </c>
+      <c r="B7" t="s">
+        <v>449</v>
+      </c>
+      <c r="C7" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>437</v>
+      </c>
+      <c r="B8" t="s">
+        <v>449</v>
+      </c>
+      <c r="C8" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>441</v>
+      </c>
+      <c r="B9" t="s">
+        <v>449</v>
+      </c>
+      <c r="C9" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="13" t="s">
+        <v>448</v>
+      </c>
+      <c r="B10" t="s">
+        <v>449</v>
+      </c>
+      <c r="C10" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="13" t="s">
+        <v>443</v>
+      </c>
+      <c r="B11" t="s">
+        <v>449</v>
+      </c>
+      <c r="C11" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>444</v>
+      </c>
+      <c r="B12" t="s">
+        <v>449</v>
+      </c>
+      <c r="C12" t="s">
+        <v>447</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/main/java/com/ghana/app/qa/testdata/GhanaVisaTestData1.xlsx
+++ b/src/main/java/com/ghana/app/qa/testdata/GhanaVisaTestData1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="360" windowWidth="18915" windowHeight="6945" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="16215" windowHeight="2955" firstSheet="3" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="SignUp" sheetId="1" r:id="rId1"/>
@@ -14,13 +14,15 @@
     <sheet name="TravelInfo" sheetId="5" r:id="rId5"/>
     <sheet name="SignUp1" sheetId="6" r:id="rId6"/>
     <sheet name="PersonalInfo1" sheetId="7" r:id="rId7"/>
+    <sheet name="Addressinfo1" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:E8"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="450">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="468">
   <si>
     <t>Visa_Type</t>
   </si>
@@ -1372,6 +1374,60 @@
   </si>
   <si>
     <t>PASS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on "Save and Continue" Button from Personal Info page </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on  "Save and Continue" Button from Personal Info page </t>
+  </si>
+  <si>
+    <t>Address Information</t>
+  </si>
+  <si>
+    <t>Address Information text from Address Info page</t>
+  </si>
+  <si>
+    <t>Formar natinality from Address Info page</t>
+  </si>
+  <si>
+    <t>Flat No. 302 Lambodhar Classic</t>
+  </si>
+  <si>
+    <t>Serene Medows, Gangapur Raod</t>
+  </si>
+  <si>
+    <t>Near Media House.</t>
+  </si>
+  <si>
+    <t>444015</t>
+  </si>
+  <si>
+    <t>Nashik</t>
+  </si>
+  <si>
+    <t>Pass the Flat/House No./Floor/Building</t>
+  </si>
+  <si>
+    <t>Pass the Colony/Street/Locality</t>
+  </si>
+  <si>
+    <t>Pass the Landmark</t>
+  </si>
+  <si>
+    <t>Pass the Pincode</t>
+  </si>
+  <si>
+    <t>Pass the City</t>
+  </si>
+  <si>
+    <t>Pass the State</t>
+  </si>
+  <si>
+    <t>Pass the Country</t>
+  </si>
+  <si>
+    <t>Select the Address</t>
   </si>
 </sst>
 </file>
@@ -1384,7 +1440,7 @@
     <numFmt numFmtId="166" formatCode="00000"/>
     <numFmt numFmtId="167" formatCode="0;[Red]0"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1415,6 +1471,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF222222"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1462,7 +1524,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -1498,6 +1560,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4818,8 +4881,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="A1:C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4983,8 +5046,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5130,4 +5193,157 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="73.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="8.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="52.42578125" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
+        <v>403</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>404</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>450</v>
+      </c>
+      <c r="B2" t="s">
+        <v>449</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>452</v>
+      </c>
+      <c r="B3" t="s">
+        <v>449</v>
+      </c>
+      <c r="C3" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
+        <v>449</v>
+      </c>
+      <c r="C4" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>455</v>
+      </c>
+      <c r="B5" t="s">
+        <v>449</v>
+      </c>
+      <c r="C5" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>456</v>
+      </c>
+      <c r="B6" t="s">
+        <v>449</v>
+      </c>
+      <c r="C6" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>457</v>
+      </c>
+      <c r="B7" t="s">
+        <v>449</v>
+      </c>
+      <c r="C7" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
+        <v>458</v>
+      </c>
+      <c r="B8" t="s">
+        <v>449</v>
+      </c>
+      <c r="C8" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>459</v>
+      </c>
+      <c r="B9" t="s">
+        <v>449</v>
+      </c>
+      <c r="C9" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>105</v>
+      </c>
+      <c r="B10" t="s">
+        <v>449</v>
+      </c>
+      <c r="C10" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
+        <v>449</v>
+      </c>
+      <c r="C11" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="B12" t="s">
+        <v>449</v>
+      </c>
+      <c r="C12" t="s">
+        <v>467</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/src/main/java/com/ghana/app/qa/testdata/GhanaVisaTestData1.xlsx
+++ b/src/main/java/com/ghana/app/qa/testdata/GhanaVisaTestData1.xlsx
@@ -17,12 +17,11 @@
     <sheet name="Addressinfo1" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:E8"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="811" uniqueCount="467">
   <si>
     <t>Visa_Type</t>
   </si>
@@ -1371,9 +1370,6 @@
   </si>
   <si>
     <t>20/05/2019</t>
-  </si>
-  <si>
-    <t>PASS</t>
   </si>
   <si>
     <t xml:space="preserve">Click on "Save and Continue" Button from Personal Info page </t>
@@ -4882,7 +4878,7 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="A1:C15"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5047,7 +5043,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
+      <selection activeCell="B2" sqref="B2:B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5073,9 +5069,6 @@
       <c r="A2" s="13" t="s">
         <v>428</v>
       </c>
-      <c r="B2" t="s">
-        <v>449</v>
-      </c>
       <c r="C2" s="13" t="s">
         <v>428</v>
       </c>
@@ -5084,9 +5077,6 @@
       <c r="A3" t="s">
         <v>427</v>
       </c>
-      <c r="B3" t="s">
-        <v>449</v>
-      </c>
       <c r="C3" s="18" t="s">
         <v>430</v>
       </c>
@@ -5095,9 +5085,6 @@
       <c r="A4" t="s">
         <v>429</v>
       </c>
-      <c r="B4" t="s">
-        <v>449</v>
-      </c>
       <c r="C4" s="18" t="s">
         <v>432</v>
       </c>
@@ -5106,9 +5093,6 @@
       <c r="A5" t="s">
         <v>433</v>
       </c>
-      <c r="B5" t="s">
-        <v>449</v>
-      </c>
       <c r="C5" t="s">
         <v>434</v>
       </c>
@@ -5117,9 +5101,6 @@
       <c r="A6" t="s">
         <v>435</v>
       </c>
-      <c r="B6" t="s">
-        <v>449</v>
-      </c>
       <c r="C6" t="s">
         <v>438</v>
       </c>
@@ -5128,9 +5109,6 @@
       <c r="A7" t="s">
         <v>436</v>
       </c>
-      <c r="B7" t="s">
-        <v>449</v>
-      </c>
       <c r="C7" t="s">
         <v>439</v>
       </c>
@@ -5139,9 +5117,6 @@
       <c r="A8" t="s">
         <v>437</v>
       </c>
-      <c r="B8" t="s">
-        <v>449</v>
-      </c>
       <c r="C8" t="s">
         <v>440</v>
       </c>
@@ -5150,9 +5125,6 @@
       <c r="A9" t="s">
         <v>441</v>
       </c>
-      <c r="B9" t="s">
-        <v>449</v>
-      </c>
       <c r="C9" t="s">
         <v>442</v>
       </c>
@@ -5161,9 +5133,6 @@
       <c r="A10" s="13" t="s">
         <v>448</v>
       </c>
-      <c r="B10" t="s">
-        <v>449</v>
-      </c>
       <c r="C10" t="s">
         <v>445</v>
       </c>
@@ -5172,9 +5141,6 @@
       <c r="A11" s="13" t="s">
         <v>443</v>
       </c>
-      <c r="B11" t="s">
-        <v>449</v>
-      </c>
       <c r="C11" t="s">
         <v>446</v>
       </c>
@@ -5182,9 +5148,6 @@
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>444</v>
-      </c>
-      <c r="B12" t="s">
-        <v>449</v>
       </c>
       <c r="C12" t="s">
         <v>447</v>
@@ -5199,8 +5162,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5223,123 +5186,90 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
+        <v>449</v>
+      </c>
+      <c r="C2" s="13" t="s">
         <v>450</v>
-      </c>
-      <c r="B2" t="s">
-        <v>449</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>451</v>
+      </c>
+      <c r="C3" t="s">
         <v>452</v>
-      </c>
-      <c r="B3" t="s">
-        <v>449</v>
-      </c>
-      <c r="C3" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>18</v>
       </c>
-      <c r="B4" t="s">
-        <v>449</v>
-      </c>
       <c r="C4" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>455</v>
-      </c>
-      <c r="B5" t="s">
-        <v>449</v>
+        <v>454</v>
       </c>
       <c r="C5" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>456</v>
-      </c>
-      <c r="B6" t="s">
-        <v>449</v>
+        <v>455</v>
       </c>
       <c r="C6" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>457</v>
-      </c>
-      <c r="B7" t="s">
-        <v>449</v>
+        <v>456</v>
       </c>
       <c r="C7" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
-        <v>458</v>
-      </c>
-      <c r="B8" t="s">
-        <v>449</v>
+        <v>457</v>
       </c>
       <c r="C8" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>459</v>
-      </c>
-      <c r="B9" t="s">
-        <v>449</v>
+        <v>458</v>
       </c>
       <c r="C9" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>105</v>
       </c>
-      <c r="B10" t="s">
-        <v>449</v>
-      </c>
       <c r="C10" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>18</v>
       </c>
-      <c r="B11" t="s">
-        <v>449</v>
-      </c>
       <c r="C11" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="B12" t="s">
-        <v>449</v>
-      </c>
       <c r="C12" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/java/com/ghana/app/qa/testdata/GhanaVisaTestData1.xlsx
+++ b/src/main/java/com/ghana/app/qa/testdata/GhanaVisaTestData1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="16215" windowHeight="2955" firstSheet="3" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="16215" windowHeight="2955" firstSheet="3" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="SignUp" sheetId="1" r:id="rId1"/>
@@ -15,13 +15,14 @@
     <sheet name="SignUp1" sheetId="6" r:id="rId6"/>
     <sheet name="PersonalInfo1" sheetId="7" r:id="rId7"/>
     <sheet name="Addressinfo1" sheetId="8" r:id="rId8"/>
+    <sheet name="Emergancy Contact1" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="811" uniqueCount="467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="886" uniqueCount="485">
   <si>
     <t>Visa_Type</t>
   </si>
@@ -1424,6 +1425,62 @@
   </si>
   <si>
     <t>Select the Address</t>
+  </si>
+  <si>
+    <t>PASS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on "Save and Continue" Button from Address Info page </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on  "Save and Continue" Button from Address Info page </t>
+  </si>
+  <si>
+    <t>Emergency Contact</t>
+  </si>
+  <si>
+    <t>Emergency Contact text from Emergency Contact Info page</t>
+  </si>
+  <si>
+    <t>Pass the Firstname at Emergency Contact</t>
+  </si>
+  <si>
+    <t>Pass the lastname at Emergency Contact</t>
+  </si>
+  <si>
+    <t>Pass the Friend</t>
+  </si>
+  <si>
+    <t>Pass the Contact Number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Pass the Profession/Occupation
+</t>
+  </si>
+  <si>
+    <t>Teacher</t>
+  </si>
+  <si>
+    <t>Pass the School/Employer Name</t>
+  </si>
+  <si>
+    <t>Bohra central school Pune</t>
+  </si>
+  <si>
+    <t>Vidya nager , Dange chowk pune</t>
+  </si>
+  <si>
+    <t>Pass the Address of school / employer</t>
+  </si>
+  <si>
+    <t>Pune</t>
+  </si>
+  <si>
+    <t>Pass the Contact Number of School/Employer</t>
+  </si>
+  <si>
+    <t>7387383800</t>
   </si>
 </sst>
 </file>
@@ -1436,7 +1493,7 @@
     <numFmt numFmtId="166" formatCode="00000"/>
     <numFmt numFmtId="167" formatCode="0;[Red]0"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1473,6 +1530,13 @@
       <color rgb="FF222222"/>
       <name val="Consolas"/>
       <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF212529"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1520,7 +1584,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -1557,6 +1621,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1570,6 +1637,56 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/activeX/activeX1.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D11A-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>19</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>914400</xdr:colOff>
+          <xdr:row>20</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1025" name="Control 1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1025"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1867,13 +1984,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="28.5703125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="23.28515625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="22.140625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="17.85546875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="19" style="3" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="29.42578125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="28.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="23.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="22.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="3" width="19.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="29.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -2205,15 +2322,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="54.7109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="14.42578125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10.85546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.140625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="20" style="10" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="16.28515625" style="3" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="15.5703125" style="3" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="13.42578125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="11.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="54.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="14.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="10.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="10" width="20.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="3" width="16.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="3" width="15.5703125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="11.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -2613,15 +2730,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="10.85546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="9.42578125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="20.5703125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="14.5703125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="13.140625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="19" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="8.28515625" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12.140625" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="13.140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" customWidth="true" width="10.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="9.42578125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="20.5703125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="14.5703125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="8.28515625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="13.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -3226,13 +3343,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.7109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="20.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11.85546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="15.7109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="22.28515625" style="6" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="9.140625" style="7" collapsed="1"/>
-    <col min="15" max="15" width="10.7109375" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="7.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="20.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="6" width="22.28515625" collapsed="true"/>
+    <col min="11" max="11" style="7" width="9.140625" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" style="3" width="10.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
@@ -3862,9 +3979,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="7" width="14.42578125" customWidth="1" collapsed="1"/>
-    <col min="8" max="9" width="17.5703125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="13" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" customWidth="true" width="14.42578125" collapsed="true"/>
+    <col min="8" max="9" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="13.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
@@ -4883,10 +5000,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="43.85546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="25.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="60.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="9.85546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="43.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="25.28515625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="60.42578125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="9.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -5048,9 +5165,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="42" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.42578125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="60.42578125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="42.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="11.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="60.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -5162,15 +5279,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="73.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="8.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="52.42578125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="73.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="8.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="52.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -5188,6 +5305,9 @@
       <c r="A2" s="13" t="s">
         <v>449</v>
       </c>
+      <c r="B2" t="s">
+        <v>467</v>
+      </c>
       <c r="C2" s="13" t="s">
         <v>450</v>
       </c>
@@ -5196,6 +5316,9 @@
       <c r="A3" t="s">
         <v>451</v>
       </c>
+      <c r="B3" t="s">
+        <v>467</v>
+      </c>
       <c r="C3" t="s">
         <v>452</v>
       </c>
@@ -5204,6 +5327,9 @@
       <c r="A4" t="s">
         <v>18</v>
       </c>
+      <c r="B4" t="s">
+        <v>467</v>
+      </c>
       <c r="C4" t="s">
         <v>453</v>
       </c>
@@ -5212,6 +5338,9 @@
       <c r="A5" t="s">
         <v>454</v>
       </c>
+      <c r="B5" t="s">
+        <v>467</v>
+      </c>
       <c r="C5" t="s">
         <v>459</v>
       </c>
@@ -5220,6 +5349,9 @@
       <c r="A6" t="s">
         <v>455</v>
       </c>
+      <c r="B6" t="s">
+        <v>467</v>
+      </c>
       <c r="C6" t="s">
         <v>460</v>
       </c>
@@ -5228,6 +5360,9 @@
       <c r="A7" t="s">
         <v>456</v>
       </c>
+      <c r="B7" t="s">
+        <v>467</v>
+      </c>
       <c r="C7" t="s">
         <v>461</v>
       </c>
@@ -5236,6 +5371,9 @@
       <c r="A8" s="14" t="s">
         <v>457</v>
       </c>
+      <c r="B8" t="s">
+        <v>467</v>
+      </c>
       <c r="C8" t="s">
         <v>462</v>
       </c>
@@ -5244,6 +5382,9 @@
       <c r="A9" t="s">
         <v>458</v>
       </c>
+      <c r="B9" t="s">
+        <v>467</v>
+      </c>
       <c r="C9" t="s">
         <v>463</v>
       </c>
@@ -5252,6 +5393,9 @@
       <c r="A10" t="s">
         <v>105</v>
       </c>
+      <c r="B10" t="s">
+        <v>467</v>
+      </c>
       <c r="C10" t="s">
         <v>464</v>
       </c>
@@ -5260,6 +5404,9 @@
       <c r="A11" t="s">
         <v>18</v>
       </c>
+      <c r="B11" t="s">
+        <v>467</v>
+      </c>
       <c r="C11" t="s">
         <v>465</v>
       </c>
@@ -5267,6 +5414,9 @@
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="19" t="s">
         <v>107</v>
+      </c>
+      <c r="B12" t="s">
+        <v>467</v>
       </c>
       <c r="C12" t="s">
         <v>466</v>
@@ -5276,4 +5426,235 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="56.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="9.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="84.42578125" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
+        <v>403</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>404</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>468</v>
+      </c>
+      <c r="B2" t="s">
+        <v>467</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="20" t="s">
+        <v>470</v>
+      </c>
+      <c r="B3" t="s">
+        <v>467</v>
+      </c>
+      <c r="C3" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B4" t="s">
+        <v>467</v>
+      </c>
+      <c r="C4" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>437</v>
+      </c>
+      <c r="B5" t="s">
+        <v>467</v>
+      </c>
+      <c r="C5" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>164</v>
+      </c>
+      <c r="B6" t="s">
+        <v>467</v>
+      </c>
+      <c r="C6" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
+        <v>425</v>
+      </c>
+      <c r="B7" t="s">
+        <v>467</v>
+      </c>
+      <c r="C7" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>477</v>
+      </c>
+      <c r="B8" t="s">
+        <v>467</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>479</v>
+      </c>
+      <c r="B9" t="s">
+        <v>467</v>
+      </c>
+      <c r="C9" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="19" t="s">
+        <v>480</v>
+      </c>
+      <c r="B10" t="s">
+        <v>467</v>
+      </c>
+      <c r="C10" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
+        <v>457</v>
+      </c>
+      <c r="B11" t="s">
+        <v>467</v>
+      </c>
+      <c r="C11" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>482</v>
+      </c>
+      <c r="B12" t="s">
+        <v>467</v>
+      </c>
+      <c r="C12" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>105</v>
+      </c>
+      <c r="B13" t="s">
+        <v>467</v>
+      </c>
+      <c r="C13" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" t="s">
+        <v>467</v>
+      </c>
+      <c r="C14" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="14" t="s">
+        <v>484</v>
+      </c>
+      <c r="B15" t="s">
+        <v>467</v>
+      </c>
+      <c r="C15" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="19"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="19"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="19"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="19"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="19"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <controls>
+    <mc:AlternateContent>
+      <mc:Choice Requires="x14">
+        <control shapeId="1025" r:id="rId4" name="Control 1">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>19</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>914400</xdr:colOff>
+                <xdr:row>20</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1025" r:id="rId4" name="Control 1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+  </controls>
+</worksheet>
 </file>
--- a/src/main/java/com/ghana/app/qa/testdata/GhanaVisaTestData1.xlsx
+++ b/src/main/java/com/ghana/app/qa/testdata/GhanaVisaTestData1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="16215" windowHeight="2955" firstSheet="3" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="16215" windowHeight="2955" firstSheet="4" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="SignUp" sheetId="1" r:id="rId1"/>
@@ -16,13 +16,14 @@
     <sheet name="PersonalInfo1" sheetId="7" r:id="rId7"/>
     <sheet name="Addressinfo1" sheetId="8" r:id="rId8"/>
     <sheet name="Emergancy Contact1" sheetId="9" r:id="rId9"/>
+    <sheet name="TravelInfo1" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="886" uniqueCount="485">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="961" uniqueCount="517">
   <si>
     <t>Visa_Type</t>
   </si>
@@ -1481,6 +1482,102 @@
   </si>
   <si>
     <t>7387383800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on "Save and Continue" Button from Emergency Info page </t>
+  </si>
+  <si>
+    <t>Travel Information</t>
+  </si>
+  <si>
+    <t>Travel Information text from Travel Information page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pass the date of departure </t>
+  </si>
+  <si>
+    <t>20/05/2023</t>
+  </si>
+  <si>
+    <t>Pass theDo you have a round trip ticket?</t>
+  </si>
+  <si>
+    <t>AF123652</t>
+  </si>
+  <si>
+    <t>Pass the Ticket number</t>
+  </si>
+  <si>
+    <t>Train</t>
+  </si>
+  <si>
+    <t>Pass the Travel option</t>
+  </si>
+  <si>
+    <t>Pass the reason of visit</t>
+  </si>
+  <si>
+    <t>Kojo</t>
+  </si>
+  <si>
+    <t>2332422233</t>
+  </si>
+  <si>
+    <t>2332422235</t>
+  </si>
+  <si>
+    <t>Skype</t>
+  </si>
+  <si>
+    <t>Pass other way to reach you</t>
+  </si>
+  <si>
+    <t>Pass the mobile number for reference 2</t>
+  </si>
+  <si>
+    <t>Pass the country for reference 2</t>
+  </si>
+  <si>
+    <t>Pass the State for reference 2</t>
+  </si>
+  <si>
+    <t>Pass the City for reference 2</t>
+  </si>
+  <si>
+    <t>Pass the Pincode for reference 2</t>
+  </si>
+  <si>
+    <t>Pass the Address for reference 2</t>
+  </si>
+  <si>
+    <t>Pass the last name of reference 2</t>
+  </si>
+  <si>
+    <t>Pass the first name of reference 2</t>
+  </si>
+  <si>
+    <t>Pass the first name of reference 1</t>
+  </si>
+  <si>
+    <t>Pass the last name of reference 1</t>
+  </si>
+  <si>
+    <t>Pass the Address for reference 1</t>
+  </si>
+  <si>
+    <t>Pass the Pincode for reference 1</t>
+  </si>
+  <si>
+    <t>Pass the City for reference 1</t>
+  </si>
+  <si>
+    <t>Pass the State for reference 1</t>
+  </si>
+  <si>
+    <t>Pass the country for reference 1</t>
+  </si>
+  <si>
+    <t>Pass the mobile number for reference 1</t>
   </si>
 </sst>
 </file>
@@ -1584,7 +1681,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -1624,6 +1721,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2312,6 +2411,295 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="58.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="64.5703125" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
+        <v>403</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>404</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>485</v>
+      </c>
+      <c r="B2" t="s">
+        <v>467</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="20" t="s">
+        <v>486</v>
+      </c>
+      <c r="B3" t="s">
+        <v>467</v>
+      </c>
+      <c r="C3" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
+        <v>489</v>
+      </c>
+      <c r="B4" t="s">
+        <v>467</v>
+      </c>
+      <c r="C4" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>395</v>
+      </c>
+      <c r="C5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>491</v>
+      </c>
+      <c r="B6" t="s">
+        <v>467</v>
+      </c>
+      <c r="C6" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>493</v>
+      </c>
+      <c r="B7" t="s">
+        <v>467</v>
+      </c>
+      <c r="C7" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>338</v>
+      </c>
+      <c r="B8" t="s">
+        <v>467</v>
+      </c>
+      <c r="C8" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="19" t="s">
+        <v>496</v>
+      </c>
+      <c r="B9" t="s">
+        <v>467</v>
+      </c>
+      <c r="C9" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>363</v>
+      </c>
+      <c r="B10" t="s">
+        <v>467</v>
+      </c>
+      <c r="C10" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>249</v>
+      </c>
+      <c r="B11" t="s">
+        <v>467</v>
+      </c>
+      <c r="C11" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>255</v>
+      </c>
+      <c r="B12" t="s">
+        <v>467</v>
+      </c>
+      <c r="C12" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>251</v>
+      </c>
+      <c r="B13" t="s">
+        <v>467</v>
+      </c>
+      <c r="C13" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>253</v>
+      </c>
+      <c r="B14" t="s">
+        <v>467</v>
+      </c>
+      <c r="C14" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>467</v>
+      </c>
+      <c r="C15" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="21" t="s">
+        <v>497</v>
+      </c>
+      <c r="B16" t="s">
+        <v>467</v>
+      </c>
+      <c r="C16" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>371</v>
+      </c>
+      <c r="B17" t="s">
+        <v>467</v>
+      </c>
+      <c r="C17" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>383</v>
+      </c>
+      <c r="B18" t="s">
+        <v>467</v>
+      </c>
+      <c r="C18" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>235</v>
+      </c>
+      <c r="B19" t="s">
+        <v>467</v>
+      </c>
+      <c r="C19" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>241</v>
+      </c>
+      <c r="B20" t="s">
+        <v>467</v>
+      </c>
+      <c r="C20" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>237</v>
+      </c>
+      <c r="B21" t="s">
+        <v>467</v>
+      </c>
+      <c r="C21" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>239</v>
+      </c>
+      <c r="B22" t="s">
+        <v>467</v>
+      </c>
+      <c r="C22" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>467</v>
+      </c>
+      <c r="C23" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="22" t="s">
+        <v>498</v>
+      </c>
+      <c r="B24" t="s">
+        <v>467</v>
+      </c>
+      <c r="C24" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>499</v>
+      </c>
+      <c r="C25" t="s">
+        <v>500</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I14"/>
@@ -5160,7 +5548,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B13"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5433,8 +5821,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/main/java/com/ghana/app/qa/testdata/GhanaVisaTestData1.xlsx
+++ b/src/main/java/com/ghana/app/qa/testdata/GhanaVisaTestData1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="16215" windowHeight="2955" firstSheet="4" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="16215" windowHeight="2955" firstSheet="7" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="SignUp" sheetId="1" r:id="rId1"/>
@@ -17,13 +17,15 @@
     <sheet name="Addressinfo1" sheetId="8" r:id="rId8"/>
     <sheet name="Emergancy Contact1" sheetId="9" r:id="rId9"/>
     <sheet name="TravelInfo1" sheetId="10" r:id="rId10"/>
+    <sheet name="DocuementUploadPage1" sheetId="11" r:id="rId11"/>
+    <sheet name="ReviewApplication" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="961" uniqueCount="517">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1153" uniqueCount="565">
   <si>
     <t>Visa_Type</t>
   </si>
@@ -1578,6 +1580,150 @@
   </si>
   <si>
     <t>Pass the mobile number for reference 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on "Save and Continue" Button from Travel Info page </t>
+  </si>
+  <si>
+    <t>Upload Documents</t>
+  </si>
+  <si>
+    <t>Upload Documents text from Upload Documents page</t>
+  </si>
+  <si>
+    <t>Review Application</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on "Save and Continue" Button from Document upload page </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verifing First and Last name on Review Application page </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Veirifing Birth Date on Review Application page </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Veirifing Birth place on Review Application page </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Veirifing passport numbere on Review Application page </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Veirifing passport issue date on Review Application page </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Veirifing passport Expiry date on Review Application page </t>
+  </si>
+  <si>
+    <t>Address Info page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Veirifing Address on Review Application page </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Veirifing Pincode on Review Application page </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Veirifing City on Review Application page </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Veirifing State on Review Application page </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Veirifing Country on Review Application page </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Veirifing Nationality on Review Application page </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Veirifing Mobile number on Review Application page </t>
+  </si>
+  <si>
+    <t>Emergency Conatct Info page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verifing Emergency First and Last name on Review Application page </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verifing Emergency mobile number on Review Application page </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verifing profession(teacher , Enginner etc ) on Review Application page </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verifing Employer school/company name on Review Application page </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verifing Employer Address on Review Application page </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verifing Employer pincode on Review Application page </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verifing Employer City on Review Application page </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verifing Employer State on Review Application page </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verifing Employer Country on Review Application page </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verifing Employer mobile number (working place) on Review Application page </t>
+  </si>
+  <si>
+    <t>Travel Info page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verifing Date of Departure on Review Application page </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verifing Ticket number on Review Application page </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verifing primary First and Last name on Review Application page </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verifing primary Address on Review Application page </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verifing primary Pincode on Review Application page </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verifing primary City on Review Application page </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verifing primary State on Review Application page </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verifing primary Country on Review Application page </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verifing primary mobile number on Review Application page </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verifing secondary First and Last name on Review Application page </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verifing secondry Address on Review Application page </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verifing secondary  Pincode on Review Application page </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verifing secondary City on Review Application page </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verifing secondary State on Review Application page </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verifing secondary Country on Review Application page </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verifing secondary mobile number on Review Application page </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Veirifing Email on Review Application page </t>
   </si>
 </sst>
 </file>
@@ -2415,8 +2561,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2692,6 +2838,560 @@
       </c>
       <c r="C25" t="s">
         <v>500</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="68.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="8.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="63.42578125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="102.0" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
+        <v>403</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>404</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>517</v>
+      </c>
+      <c r="B2" t="s">
+        <v>467</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="20" t="s">
+        <v>518</v>
+      </c>
+      <c r="B3" t="s">
+        <v>467</v>
+      </c>
+      <c r="C3" t="s">
+        <v>519</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C47"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="69.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="12.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="60.5703125" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
+        <v>403</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>404</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>521</v>
+      </c>
+      <c r="B2" t="s">
+        <v>467</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="20" t="s">
+        <v>520</v>
+      </c>
+      <c r="B3" t="s">
+        <v>467</v>
+      </c>
+      <c r="C3" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>522</v>
+      </c>
+      <c r="C4" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>523</v>
+      </c>
+      <c r="C5" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>524</v>
+      </c>
+      <c r="C6" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>525</v>
+      </c>
+      <c r="C7" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>526</v>
+      </c>
+      <c r="C8" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>527</v>
+      </c>
+      <c r="C9" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
+        <v>528</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>529</v>
+      </c>
+      <c r="B12" t="s">
+        <v>467</v>
+      </c>
+      <c r="C12" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>564</v>
+      </c>
+      <c r="B13" t="s">
+        <v>467</v>
+      </c>
+      <c r="C13" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>530</v>
+      </c>
+      <c r="B14" t="s">
+        <v>467</v>
+      </c>
+      <c r="C14" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>531</v>
+      </c>
+      <c r="B15" t="s">
+        <v>467</v>
+      </c>
+      <c r="C15" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>532</v>
+      </c>
+      <c r="B16" t="s">
+        <v>467</v>
+      </c>
+      <c r="C16" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>533</v>
+      </c>
+      <c r="B17" t="s">
+        <v>467</v>
+      </c>
+      <c r="C17" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>534</v>
+      </c>
+      <c r="B18" t="s">
+        <v>467</v>
+      </c>
+      <c r="C18" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>535</v>
+      </c>
+      <c r="B19" t="s">
+        <v>467</v>
+      </c>
+      <c r="C19" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="11" t="s">
+        <v>536</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>537</v>
+      </c>
+      <c r="B21" t="s">
+        <v>467</v>
+      </c>
+      <c r="C21" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>538</v>
+      </c>
+      <c r="B22" t="s">
+        <v>467</v>
+      </c>
+      <c r="C22" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>539</v>
+      </c>
+      <c r="B23" t="s">
+        <v>467</v>
+      </c>
+      <c r="C23" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>540</v>
+      </c>
+      <c r="B24" t="s">
+        <v>467</v>
+      </c>
+      <c r="C24" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>541</v>
+      </c>
+      <c r="B25" t="s">
+        <v>467</v>
+      </c>
+      <c r="C25" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>542</v>
+      </c>
+      <c r="B26" t="s">
+        <v>467</v>
+      </c>
+      <c r="C26" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>543</v>
+      </c>
+      <c r="B27" t="s">
+        <v>467</v>
+      </c>
+      <c r="C27" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>544</v>
+      </c>
+      <c r="B28" t="s">
+        <v>467</v>
+      </c>
+      <c r="C28" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>545</v>
+      </c>
+      <c r="B29" t="s">
+        <v>467</v>
+      </c>
+      <c r="C29" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>546</v>
+      </c>
+      <c r="B30" t="s">
+        <v>467</v>
+      </c>
+      <c r="C30" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="11" t="s">
+        <v>547</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>548</v>
+      </c>
+      <c r="B32" t="s">
+        <v>467</v>
+      </c>
+      <c r="C32" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>549</v>
+      </c>
+      <c r="B33" t="s">
+        <v>467</v>
+      </c>
+      <c r="C33" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>550</v>
+      </c>
+      <c r="B34" t="s">
+        <v>467</v>
+      </c>
+      <c r="C34" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>551</v>
+      </c>
+      <c r="B35" t="s">
+        <v>467</v>
+      </c>
+      <c r="C35" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>552</v>
+      </c>
+      <c r="B36" t="s">
+        <v>467</v>
+      </c>
+      <c r="C36" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>553</v>
+      </c>
+      <c r="B37" t="s">
+        <v>467</v>
+      </c>
+      <c r="C37" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>554</v>
+      </c>
+      <c r="B38" t="s">
+        <v>467</v>
+      </c>
+      <c r="C38" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>555</v>
+      </c>
+      <c r="B39" t="s">
+        <v>467</v>
+      </c>
+      <c r="C39" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>556</v>
+      </c>
+      <c r="B40" t="s">
+        <v>467</v>
+      </c>
+      <c r="C40" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>557</v>
+      </c>
+      <c r="B41" t="s">
+        <v>467</v>
+      </c>
+      <c r="C41" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>558</v>
+      </c>
+      <c r="B42" t="s">
+        <v>467</v>
+      </c>
+      <c r="C42" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>559</v>
+      </c>
+      <c r="B43" t="s">
+        <v>467</v>
+      </c>
+      <c r="C43" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>560</v>
+      </c>
+      <c r="B44" t="s">
+        <v>467</v>
+      </c>
+      <c r="C44" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>561</v>
+      </c>
+      <c r="B45" t="s">
+        <v>467</v>
+      </c>
+      <c r="C45" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>562</v>
+      </c>
+      <c r="B46" t="s">
+        <v>467</v>
+      </c>
+      <c r="C46" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>563</v>
+      </c>
+      <c r="B47" t="s">
+        <v>467</v>
+      </c>
+      <c r="C47" t="s">
+        <v>563</v>
       </c>
     </row>
   </sheetData>
@@ -5409,6 +6109,9 @@
       <c r="A2" t="s">
         <v>406</v>
       </c>
+      <c r="B2" t="s">
+        <v>467</v>
+      </c>
       <c r="C2" t="s">
         <v>407</v>
       </c>
@@ -5425,6 +6128,9 @@
       <c r="A4" t="s">
         <v>409</v>
       </c>
+      <c r="B4" t="s">
+        <v>467</v>
+      </c>
       <c r="C4" t="s">
         <v>410</v>
       </c>
@@ -5432,6 +6138,9 @@
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>411</v>
+      </c>
+      <c r="B5" t="s">
+        <v>467</v>
       </c>
       <c r="C5" t="s">
         <v>412</v>

--- a/src/main/java/com/ghana/app/qa/testdata/GhanaVisaTestData1.xlsx
+++ b/src/main/java/com/ghana/app/qa/testdata/GhanaVisaTestData1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="16215" windowHeight="2955" firstSheet="7" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="16215" windowHeight="2955" firstSheet="8" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="SignUp" sheetId="1" r:id="rId1"/>
@@ -19,13 +19,14 @@
     <sheet name="TravelInfo1" sheetId="10" r:id="rId10"/>
     <sheet name="DocuementUploadPage1" sheetId="11" r:id="rId11"/>
     <sheet name="ReviewApplication" sheetId="12" r:id="rId12"/>
+    <sheet name="PaymentPage" sheetId="13" r:id="rId13"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1153" uniqueCount="565">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1061" uniqueCount="569">
   <si>
     <t>Visa_Type</t>
   </si>
@@ -1724,6 +1725,18 @@
   </si>
   <si>
     <t xml:space="preserve">Veirifing Email on Review Application page </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on "Save and Continue" Button from Review page </t>
+  </si>
+  <si>
+    <t>Visa Payment</t>
+  </si>
+  <si>
+    <t>Visa Payment text from Visa Payment page</t>
+  </si>
+  <si>
+    <t>Verify Home page title after payment is done</t>
   </si>
 </sst>
 </file>
@@ -1736,7 +1749,7 @@
     <numFmt numFmtId="166" formatCode="00000"/>
     <numFmt numFmtId="167" formatCode="0;[Red]0"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1780,6 +1793,14 @@
       <color rgb="FF212529"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF212529"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1827,7 +1848,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -1869,6 +1890,7 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2561,7 +2583,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
@@ -2905,7 +2927,7 @@
   <dimension ref="A1:C47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2941,9 +2963,6 @@
       <c r="A3" s="20" t="s">
         <v>520</v>
       </c>
-      <c r="B3" t="s">
-        <v>467</v>
-      </c>
       <c r="C3" t="s">
         <v>519</v>
       </c>
@@ -3008,9 +3027,6 @@
       <c r="A12" t="s">
         <v>529</v>
       </c>
-      <c r="B12" t="s">
-        <v>467</v>
-      </c>
       <c r="C12" t="s">
         <v>529</v>
       </c>
@@ -3019,9 +3035,6 @@
       <c r="A13" t="s">
         <v>564</v>
       </c>
-      <c r="B13" t="s">
-        <v>467</v>
-      </c>
       <c r="C13" t="s">
         <v>564</v>
       </c>
@@ -3030,9 +3043,6 @@
       <c r="A14" t="s">
         <v>530</v>
       </c>
-      <c r="B14" t="s">
-        <v>467</v>
-      </c>
       <c r="C14" t="s">
         <v>530</v>
       </c>
@@ -3041,9 +3051,6 @@
       <c r="A15" t="s">
         <v>531</v>
       </c>
-      <c r="B15" t="s">
-        <v>467</v>
-      </c>
       <c r="C15" t="s">
         <v>531</v>
       </c>
@@ -3052,9 +3059,6 @@
       <c r="A16" t="s">
         <v>532</v>
       </c>
-      <c r="B16" t="s">
-        <v>467</v>
-      </c>
       <c r="C16" t="s">
         <v>532</v>
       </c>
@@ -3063,9 +3067,6 @@
       <c r="A17" t="s">
         <v>533</v>
       </c>
-      <c r="B17" t="s">
-        <v>467</v>
-      </c>
       <c r="C17" t="s">
         <v>533</v>
       </c>
@@ -3074,9 +3075,6 @@
       <c r="A18" t="s">
         <v>534</v>
       </c>
-      <c r="B18" t="s">
-        <v>467</v>
-      </c>
       <c r="C18" t="s">
         <v>534</v>
       </c>
@@ -3085,9 +3083,6 @@
       <c r="A19" t="s">
         <v>535</v>
       </c>
-      <c r="B19" t="s">
-        <v>467</v>
-      </c>
       <c r="C19" t="s">
         <v>535</v>
       </c>
@@ -3104,9 +3099,6 @@
       <c r="A21" t="s">
         <v>537</v>
       </c>
-      <c r="B21" t="s">
-        <v>467</v>
-      </c>
       <c r="C21" t="s">
         <v>537</v>
       </c>
@@ -3115,9 +3107,6 @@
       <c r="A22" t="s">
         <v>538</v>
       </c>
-      <c r="B22" t="s">
-        <v>467</v>
-      </c>
       <c r="C22" t="s">
         <v>538</v>
       </c>
@@ -3126,9 +3115,6 @@
       <c r="A23" t="s">
         <v>539</v>
       </c>
-      <c r="B23" t="s">
-        <v>467</v>
-      </c>
       <c r="C23" t="s">
         <v>539</v>
       </c>
@@ -3137,9 +3123,6 @@
       <c r="A24" t="s">
         <v>540</v>
       </c>
-      <c r="B24" t="s">
-        <v>467</v>
-      </c>
       <c r="C24" t="s">
         <v>540</v>
       </c>
@@ -3148,9 +3131,6 @@
       <c r="A25" t="s">
         <v>541</v>
       </c>
-      <c r="B25" t="s">
-        <v>467</v>
-      </c>
       <c r="C25" t="s">
         <v>541</v>
       </c>
@@ -3159,9 +3139,6 @@
       <c r="A26" t="s">
         <v>542</v>
       </c>
-      <c r="B26" t="s">
-        <v>467</v>
-      </c>
       <c r="C26" t="s">
         <v>542</v>
       </c>
@@ -3170,9 +3147,6 @@
       <c r="A27" t="s">
         <v>543</v>
       </c>
-      <c r="B27" t="s">
-        <v>467</v>
-      </c>
       <c r="C27" t="s">
         <v>543</v>
       </c>
@@ -3181,9 +3155,6 @@
       <c r="A28" t="s">
         <v>544</v>
       </c>
-      <c r="B28" t="s">
-        <v>467</v>
-      </c>
       <c r="C28" t="s">
         <v>544</v>
       </c>
@@ -3192,9 +3163,6 @@
       <c r="A29" t="s">
         <v>545</v>
       </c>
-      <c r="B29" t="s">
-        <v>467</v>
-      </c>
       <c r="C29" t="s">
         <v>545</v>
       </c>
@@ -3203,9 +3171,6 @@
       <c r="A30" t="s">
         <v>546</v>
       </c>
-      <c r="B30" t="s">
-        <v>467</v>
-      </c>
       <c r="C30" t="s">
         <v>546</v>
       </c>
@@ -3222,9 +3187,6 @@
       <c r="A32" t="s">
         <v>548</v>
       </c>
-      <c r="B32" t="s">
-        <v>467</v>
-      </c>
       <c r="C32" t="s">
         <v>548</v>
       </c>
@@ -3233,9 +3195,6 @@
       <c r="A33" t="s">
         <v>549</v>
       </c>
-      <c r="B33" t="s">
-        <v>467</v>
-      </c>
       <c r="C33" t="s">
         <v>549</v>
       </c>
@@ -3244,9 +3203,6 @@
       <c r="A34" t="s">
         <v>550</v>
       </c>
-      <c r="B34" t="s">
-        <v>467</v>
-      </c>
       <c r="C34" t="s">
         <v>550</v>
       </c>
@@ -3255,9 +3211,6 @@
       <c r="A35" t="s">
         <v>551</v>
       </c>
-      <c r="B35" t="s">
-        <v>467</v>
-      </c>
       <c r="C35" t="s">
         <v>551</v>
       </c>
@@ -3266,9 +3219,6 @@
       <c r="A36" t="s">
         <v>552</v>
       </c>
-      <c r="B36" t="s">
-        <v>467</v>
-      </c>
       <c r="C36" t="s">
         <v>552</v>
       </c>
@@ -3277,9 +3227,6 @@
       <c r="A37" t="s">
         <v>553</v>
       </c>
-      <c r="B37" t="s">
-        <v>467</v>
-      </c>
       <c r="C37" t="s">
         <v>553</v>
       </c>
@@ -3288,9 +3235,6 @@
       <c r="A38" t="s">
         <v>554</v>
       </c>
-      <c r="B38" t="s">
-        <v>467</v>
-      </c>
       <c r="C38" t="s">
         <v>554</v>
       </c>
@@ -3299,9 +3243,6 @@
       <c r="A39" t="s">
         <v>555</v>
       </c>
-      <c r="B39" t="s">
-        <v>467</v>
-      </c>
       <c r="C39" t="s">
         <v>555</v>
       </c>
@@ -3310,9 +3251,6 @@
       <c r="A40" t="s">
         <v>556</v>
       </c>
-      <c r="B40" t="s">
-        <v>467</v>
-      </c>
       <c r="C40" t="s">
         <v>556</v>
       </c>
@@ -3321,9 +3259,6 @@
       <c r="A41" t="s">
         <v>557</v>
       </c>
-      <c r="B41" t="s">
-        <v>467</v>
-      </c>
       <c r="C41" t="s">
         <v>557</v>
       </c>
@@ -3332,9 +3267,6 @@
       <c r="A42" t="s">
         <v>558</v>
       </c>
-      <c r="B42" t="s">
-        <v>467</v>
-      </c>
       <c r="C42" t="s">
         <v>558</v>
       </c>
@@ -3343,9 +3275,6 @@
       <c r="A43" t="s">
         <v>559</v>
       </c>
-      <c r="B43" t="s">
-        <v>467</v>
-      </c>
       <c r="C43" t="s">
         <v>559</v>
       </c>
@@ -3354,9 +3283,6 @@
       <c r="A44" t="s">
         <v>560</v>
       </c>
-      <c r="B44" t="s">
-        <v>467</v>
-      </c>
       <c r="C44" t="s">
         <v>560</v>
       </c>
@@ -3365,9 +3291,6 @@
       <c r="A45" t="s">
         <v>561</v>
       </c>
-      <c r="B45" t="s">
-        <v>467</v>
-      </c>
       <c r="C45" t="s">
         <v>561</v>
       </c>
@@ -3376,9 +3299,6 @@
       <c r="A46" t="s">
         <v>562</v>
       </c>
-      <c r="B46" t="s">
-        <v>467</v>
-      </c>
       <c r="C46" t="s">
         <v>562</v>
       </c>
@@ -3387,11 +3307,70 @@
       <c r="A47" t="s">
         <v>563</v>
       </c>
-      <c r="B47" t="s">
-        <v>467</v>
-      </c>
       <c r="C47" t="s">
         <v>563</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="60.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="11.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="64.7109375" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
+        <v>403</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>404</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>565</v>
+      </c>
+      <c r="B2" t="s">
+        <v>467</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="23" t="s">
+        <v>566</v>
+      </c>
+      <c r="B3" t="s">
+        <v>467</v>
+      </c>
+      <c r="C3" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>568</v>
+      </c>
+      <c r="C4" t="s">
+        <v>568</v>
       </c>
     </row>
   </sheetData>
@@ -3404,7 +3383,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
@@ -6150,6 +6129,9 @@
       <c r="A6" t="s">
         <v>413</v>
       </c>
+      <c r="B6" t="s">
+        <v>467</v>
+      </c>
       <c r="C6" t="s">
         <v>414</v>
       </c>

--- a/src/main/java/com/ghana/app/qa/testdata/GhanaVisaTestData1.xlsx
+++ b/src/main/java/com/ghana/app/qa/testdata/GhanaVisaTestData1.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1061" uniqueCount="569">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1085" uniqueCount="569">
   <si>
     <t>Visa_Type</t>
   </si>
@@ -3369,6 +3369,9 @@
       <c r="A4" t="s">
         <v>568</v>
       </c>
+      <c r="B4" t="s">
+        <v>467</v>
+      </c>
       <c r="C4" t="s">
         <v>568</v>
       </c>
@@ -6140,6 +6143,9 @@
       <c r="A7" t="s">
         <v>16</v>
       </c>
+      <c r="B7" t="s">
+        <v>467</v>
+      </c>
       <c r="C7" t="s">
         <v>415</v>
       </c>
@@ -6148,6 +6154,9 @@
       <c r="A8" t="s">
         <v>18</v>
       </c>
+      <c r="B8" t="s">
+        <v>467</v>
+      </c>
       <c r="C8" t="s">
         <v>416</v>
       </c>
@@ -6156,6 +6165,9 @@
       <c r="A9" s="12" t="s">
         <v>26</v>
       </c>
+      <c r="B9" t="s">
+        <v>467</v>
+      </c>
       <c r="C9" t="s">
         <v>417</v>
       </c>
@@ -6164,6 +6176,9 @@
       <c r="A10" s="12" t="s">
         <v>418</v>
       </c>
+      <c r="B10" t="s">
+        <v>467</v>
+      </c>
       <c r="C10" t="s">
         <v>419</v>
       </c>
@@ -6172,6 +6187,9 @@
       <c r="A11" t="s">
         <v>70</v>
       </c>
+      <c r="B11" t="s">
+        <v>467</v>
+      </c>
       <c r="C11" t="s">
         <v>420</v>
       </c>
@@ -6180,6 +6198,9 @@
       <c r="A12" s="14" t="s">
         <v>425</v>
       </c>
+      <c r="B12" t="s">
+        <v>467</v>
+      </c>
       <c r="C12" t="s">
         <v>422</v>
       </c>
@@ -6188,6 +6209,9 @@
       <c r="A13" s="4" t="s">
         <v>421</v>
       </c>
+      <c r="B13" t="s">
+        <v>467</v>
+      </c>
       <c r="C13" t="s">
         <v>423</v>
       </c>
@@ -6196,6 +6220,9 @@
       <c r="A14" s="4" t="s">
         <v>421</v>
       </c>
+      <c r="B14" t="s">
+        <v>467</v>
+      </c>
       <c r="C14" t="s">
         <v>424</v>
       </c>
@@ -6203,6 +6230,9 @@
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
         <v>426</v>
+      </c>
+      <c r="B15" t="s">
+        <v>467</v>
       </c>
       <c r="C15" t="s">
         <v>431</v>

--- a/src/main/java/com/ghana/app/qa/testdata/GhanaVisaTestData1.xlsx
+++ b/src/main/java/com/ghana/app/qa/testdata/GhanaVisaTestData1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="16215" windowHeight="2955" firstSheet="8" activeTab="12"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="16320" windowHeight="2805" firstSheet="8" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="SignUp" sheetId="1" r:id="rId1"/>
@@ -22,11 +22,12 @@
     <sheet name="PaymentPage" sheetId="13" r:id="rId13"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1:C7"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1085" uniqueCount="569">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1438" uniqueCount="569">
   <si>
     <t>Visa_Type</t>
   </si>
@@ -3321,8 +3322,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6542,7 +6543,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>

--- a/src/main/java/com/ghana/app/qa/testdata/GhanaVisaTestData1.xlsx
+++ b/src/main/java/com/ghana/app/qa/testdata/GhanaVisaTestData1.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1438" uniqueCount="569">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1447" uniqueCount="569">
   <si>
     <t>Visa_Type</t>
   </si>

--- a/src/main/java/com/ghana/app/qa/testdata/GhanaVisaTestData1.xlsx
+++ b/src/main/java/com/ghana/app/qa/testdata/GhanaVisaTestData1.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1447" uniqueCount="569">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1645" uniqueCount="569">
   <si>
     <t>Visa_Type</t>
   </si>
@@ -6241,12 +6241,21 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="13"/>
+      <c r="B16" t="s">
+        <v>467</v>
+      </c>
       <c r="C16" s="13"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>467</v>
+      </c>
       <c r="C17" s="18"/>
     </row>
     <row r="18" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>467</v>
+      </c>
       <c r="C18" s="18"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -6296,6 +6305,9 @@
       <c r="A2" s="13" t="s">
         <v>428</v>
       </c>
+      <c r="B2" t="s">
+        <v>467</v>
+      </c>
       <c r="C2" s="13" t="s">
         <v>428</v>
       </c>
@@ -6304,6 +6316,9 @@
       <c r="A3" t="s">
         <v>427</v>
       </c>
+      <c r="B3" t="s">
+        <v>467</v>
+      </c>
       <c r="C3" s="18" t="s">
         <v>430</v>
       </c>
@@ -6312,6 +6327,9 @@
       <c r="A4" t="s">
         <v>429</v>
       </c>
+      <c r="B4" t="s">
+        <v>467</v>
+      </c>
       <c r="C4" s="18" t="s">
         <v>432</v>
       </c>
@@ -6320,6 +6338,9 @@
       <c r="A5" t="s">
         <v>433</v>
       </c>
+      <c r="B5" t="s">
+        <v>467</v>
+      </c>
       <c r="C5" t="s">
         <v>434</v>
       </c>
@@ -6328,6 +6349,9 @@
       <c r="A6" t="s">
         <v>435</v>
       </c>
+      <c r="B6" t="s">
+        <v>467</v>
+      </c>
       <c r="C6" t="s">
         <v>438</v>
       </c>
@@ -6336,6 +6360,9 @@
       <c r="A7" t="s">
         <v>436</v>
       </c>
+      <c r="B7" t="s">
+        <v>467</v>
+      </c>
       <c r="C7" t="s">
         <v>439</v>
       </c>
@@ -6344,6 +6371,9 @@
       <c r="A8" t="s">
         <v>437</v>
       </c>
+      <c r="B8" t="s">
+        <v>467</v>
+      </c>
       <c r="C8" t="s">
         <v>440</v>
       </c>
@@ -6352,6 +6382,9 @@
       <c r="A9" t="s">
         <v>441</v>
       </c>
+      <c r="B9" t="s">
+        <v>467</v>
+      </c>
       <c r="C9" t="s">
         <v>442</v>
       </c>
@@ -6360,6 +6393,9 @@
       <c r="A10" s="13" t="s">
         <v>448</v>
       </c>
+      <c r="B10" t="s">
+        <v>467</v>
+      </c>
       <c r="C10" t="s">
         <v>445</v>
       </c>
@@ -6368,6 +6404,9 @@
       <c r="A11" s="13" t="s">
         <v>443</v>
       </c>
+      <c r="B11" t="s">
+        <v>467</v>
+      </c>
       <c r="C11" t="s">
         <v>446</v>
       </c>
@@ -6375,6 +6414,9 @@
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>444</v>
+      </c>
+      <c r="B12" t="s">
+        <v>467</v>
       </c>
       <c r="C12" t="s">
         <v>447</v>

--- a/src/main/java/com/ghana/app/qa/testdata/GhanaVisaTestData1.xlsx
+++ b/src/main/java/com/ghana/app/qa/testdata/GhanaVisaTestData1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="16320" windowHeight="2805" firstSheet="8" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="16320" windowHeight="2805" firstSheet="4" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="SignUp" sheetId="1" r:id="rId1"/>
@@ -22,12 +22,11 @@
     <sheet name="PaymentPage" sheetId="13" r:id="rId13"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:C7"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1645" uniqueCount="569">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1079" uniqueCount="569">
   <si>
     <t>Visa_Type</t>
   </si>
@@ -1750,7 +1749,7 @@
     <numFmt numFmtId="166" formatCode="00000"/>
     <numFmt numFmtId="167" formatCode="0;[Red]0"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2252,13 +2251,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="17.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="28.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="23.28515625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="22.140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="17.85546875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="3" width="19.0" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="29.42578125" collapsed="true"/>
+    <col min="1" max="1" width="17.85546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="28.5703125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="23.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="22.140625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="17.85546875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="19" style="3" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="29.42578125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -2590,8 +2589,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="58.28515625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="64.5703125" collapsed="true"/>
+    <col min="1" max="1" width="58.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="64.5703125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -2879,10 +2878,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="68.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="8.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="63.42578125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="102.0" collapsed="true"/>
+    <col min="1" max="1" width="68.85546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="8" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="63.42578125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="102" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -2933,9 +2932,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="69.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="12.85546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="60.5703125" collapsed="true"/>
+    <col min="1" max="1" width="69.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12.85546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="60.5703125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -2964,6 +2963,9 @@
       <c r="A3" s="20" t="s">
         <v>520</v>
       </c>
+      <c r="B3" t="s">
+        <v>467</v>
+      </c>
       <c r="C3" t="s">
         <v>519</v>
       </c>
@@ -3028,6 +3030,9 @@
       <c r="A12" t="s">
         <v>529</v>
       </c>
+      <c r="B12" t="s">
+        <v>467</v>
+      </c>
       <c r="C12" t="s">
         <v>529</v>
       </c>
@@ -3036,6 +3041,9 @@
       <c r="A13" t="s">
         <v>564</v>
       </c>
+      <c r="B13" t="s">
+        <v>467</v>
+      </c>
       <c r="C13" t="s">
         <v>564</v>
       </c>
@@ -3044,6 +3052,9 @@
       <c r="A14" t="s">
         <v>530</v>
       </c>
+      <c r="B14" t="s">
+        <v>467</v>
+      </c>
       <c r="C14" t="s">
         <v>530</v>
       </c>
@@ -3052,6 +3063,9 @@
       <c r="A15" t="s">
         <v>531</v>
       </c>
+      <c r="B15" t="s">
+        <v>467</v>
+      </c>
       <c r="C15" t="s">
         <v>531</v>
       </c>
@@ -3060,6 +3074,9 @@
       <c r="A16" t="s">
         <v>532</v>
       </c>
+      <c r="B16" t="s">
+        <v>467</v>
+      </c>
       <c r="C16" t="s">
         <v>532</v>
       </c>
@@ -3068,6 +3085,9 @@
       <c r="A17" t="s">
         <v>533</v>
       </c>
+      <c r="B17" t="s">
+        <v>467</v>
+      </c>
       <c r="C17" t="s">
         <v>533</v>
       </c>
@@ -3076,6 +3096,9 @@
       <c r="A18" t="s">
         <v>534</v>
       </c>
+      <c r="B18" t="s">
+        <v>467</v>
+      </c>
       <c r="C18" t="s">
         <v>534</v>
       </c>
@@ -3084,6 +3107,9 @@
       <c r="A19" t="s">
         <v>535</v>
       </c>
+      <c r="B19" t="s">
+        <v>467</v>
+      </c>
       <c r="C19" t="s">
         <v>535</v>
       </c>
@@ -3100,6 +3126,9 @@
       <c r="A21" t="s">
         <v>537</v>
       </c>
+      <c r="B21" t="s">
+        <v>467</v>
+      </c>
       <c r="C21" t="s">
         <v>537</v>
       </c>
@@ -3108,6 +3137,9 @@
       <c r="A22" t="s">
         <v>538</v>
       </c>
+      <c r="B22" t="s">
+        <v>467</v>
+      </c>
       <c r="C22" t="s">
         <v>538</v>
       </c>
@@ -3116,6 +3148,9 @@
       <c r="A23" t="s">
         <v>539</v>
       </c>
+      <c r="B23" t="s">
+        <v>467</v>
+      </c>
       <c r="C23" t="s">
         <v>539</v>
       </c>
@@ -3124,6 +3159,9 @@
       <c r="A24" t="s">
         <v>540</v>
       </c>
+      <c r="B24" t="s">
+        <v>467</v>
+      </c>
       <c r="C24" t="s">
         <v>540</v>
       </c>
@@ -3132,6 +3170,9 @@
       <c r="A25" t="s">
         <v>541</v>
       </c>
+      <c r="B25" t="s">
+        <v>467</v>
+      </c>
       <c r="C25" t="s">
         <v>541</v>
       </c>
@@ -3140,6 +3181,9 @@
       <c r="A26" t="s">
         <v>542</v>
       </c>
+      <c r="B26" t="s">
+        <v>467</v>
+      </c>
       <c r="C26" t="s">
         <v>542</v>
       </c>
@@ -3148,6 +3192,9 @@
       <c r="A27" t="s">
         <v>543</v>
       </c>
+      <c r="B27" t="s">
+        <v>467</v>
+      </c>
       <c r="C27" t="s">
         <v>543</v>
       </c>
@@ -3156,6 +3203,9 @@
       <c r="A28" t="s">
         <v>544</v>
       </c>
+      <c r="B28" t="s">
+        <v>467</v>
+      </c>
       <c r="C28" t="s">
         <v>544</v>
       </c>
@@ -3164,6 +3214,9 @@
       <c r="A29" t="s">
         <v>545</v>
       </c>
+      <c r="B29" t="s">
+        <v>467</v>
+      </c>
       <c r="C29" t="s">
         <v>545</v>
       </c>
@@ -3172,6 +3225,9 @@
       <c r="A30" t="s">
         <v>546</v>
       </c>
+      <c r="B30" t="s">
+        <v>467</v>
+      </c>
       <c r="C30" t="s">
         <v>546</v>
       </c>
@@ -3188,6 +3244,9 @@
       <c r="A32" t="s">
         <v>548</v>
       </c>
+      <c r="B32" t="s">
+        <v>467</v>
+      </c>
       <c r="C32" t="s">
         <v>548</v>
       </c>
@@ -3196,6 +3255,9 @@
       <c r="A33" t="s">
         <v>549</v>
       </c>
+      <c r="B33" t="s">
+        <v>467</v>
+      </c>
       <c r="C33" t="s">
         <v>549</v>
       </c>
@@ -3204,6 +3266,9 @@
       <c r="A34" t="s">
         <v>550</v>
       </c>
+      <c r="B34" t="s">
+        <v>467</v>
+      </c>
       <c r="C34" t="s">
         <v>550</v>
       </c>
@@ -3212,6 +3277,9 @@
       <c r="A35" t="s">
         <v>551</v>
       </c>
+      <c r="B35" t="s">
+        <v>467</v>
+      </c>
       <c r="C35" t="s">
         <v>551</v>
       </c>
@@ -3220,6 +3288,9 @@
       <c r="A36" t="s">
         <v>552</v>
       </c>
+      <c r="B36" t="s">
+        <v>467</v>
+      </c>
       <c r="C36" t="s">
         <v>552</v>
       </c>
@@ -3228,6 +3299,9 @@
       <c r="A37" t="s">
         <v>553</v>
       </c>
+      <c r="B37" t="s">
+        <v>467</v>
+      </c>
       <c r="C37" t="s">
         <v>553</v>
       </c>
@@ -3236,6 +3310,9 @@
       <c r="A38" t="s">
         <v>554</v>
       </c>
+      <c r="B38" t="s">
+        <v>467</v>
+      </c>
       <c r="C38" t="s">
         <v>554</v>
       </c>
@@ -3244,6 +3321,9 @@
       <c r="A39" t="s">
         <v>555</v>
       </c>
+      <c r="B39" t="s">
+        <v>467</v>
+      </c>
       <c r="C39" t="s">
         <v>555</v>
       </c>
@@ -3252,6 +3332,9 @@
       <c r="A40" t="s">
         <v>556</v>
       </c>
+      <c r="B40" t="s">
+        <v>467</v>
+      </c>
       <c r="C40" t="s">
         <v>556</v>
       </c>
@@ -3260,6 +3343,9 @@
       <c r="A41" t="s">
         <v>557</v>
       </c>
+      <c r="B41" t="s">
+        <v>467</v>
+      </c>
       <c r="C41" t="s">
         <v>557</v>
       </c>
@@ -3268,6 +3354,9 @@
       <c r="A42" t="s">
         <v>558</v>
       </c>
+      <c r="B42" t="s">
+        <v>467</v>
+      </c>
       <c r="C42" t="s">
         <v>558</v>
       </c>
@@ -3276,6 +3365,9 @@
       <c r="A43" t="s">
         <v>559</v>
       </c>
+      <c r="B43" t="s">
+        <v>467</v>
+      </c>
       <c r="C43" t="s">
         <v>559</v>
       </c>
@@ -3284,6 +3376,9 @@
       <c r="A44" t="s">
         <v>560</v>
       </c>
+      <c r="B44" t="s">
+        <v>467</v>
+      </c>
       <c r="C44" t="s">
         <v>560</v>
       </c>
@@ -3292,6 +3387,9 @@
       <c r="A45" t="s">
         <v>561</v>
       </c>
+      <c r="B45" t="s">
+        <v>467</v>
+      </c>
       <c r="C45" t="s">
         <v>561</v>
       </c>
@@ -3300,6 +3398,9 @@
       <c r="A46" t="s">
         <v>562</v>
       </c>
+      <c r="B46" t="s">
+        <v>467</v>
+      </c>
       <c r="C46" t="s">
         <v>562</v>
       </c>
@@ -3307,6 +3408,9 @@
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>563</v>
+      </c>
+      <c r="B47" t="s">
+        <v>467</v>
       </c>
       <c r="C47" t="s">
         <v>563</v>
@@ -3328,9 +3432,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="60.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="11.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="64.7109375" collapsed="true"/>
+    <col min="1" max="1" width="60.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11.42578125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="64.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -3393,15 +3497,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="54.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="14.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="10.85546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="10" width="20.0" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="3" width="16.28515625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="3" width="15.5703125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="13.42578125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="1" max="1" width="54.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="14.42578125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="10.85546875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="20" style="10" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="16.28515625" style="3" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="15.5703125" style="3" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="13.42578125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="11.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -3801,15 +3905,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" customWidth="true" width="10.85546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="9.42578125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="20.5703125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="14.5703125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="13.140625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="8.28515625" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="12.140625" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="3" max="3" width="10.85546875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="9.42578125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="20.5703125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="14.5703125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="13.140625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="19" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="8.28515625" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="12.140625" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="13.140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -4414,13 +4518,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="7.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="20.28515625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="11.85546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="15.7109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="6" width="22.28515625" collapsed="true"/>
-    <col min="11" max="11" style="7" width="9.140625" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" style="3" width="10.7109375" collapsed="true"/>
+    <col min="1" max="1" width="7.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="20.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.85546875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15.7109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="22.28515625" style="6" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="9.140625" style="7" collapsed="1"/>
+    <col min="15" max="15" width="10.7109375" style="3" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
@@ -5050,9 +5154,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="7" customWidth="true" width="14.42578125" collapsed="true"/>
-    <col min="8" max="9" customWidth="true" width="17.5703125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="7" max="7" width="14.42578125" customWidth="1" collapsed="1"/>
+    <col min="8" max="9" width="17.5703125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="13" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
@@ -6065,16 +6169,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="43.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="25.28515625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="60.42578125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="9.85546875" collapsed="true"/>
+    <col min="1" max="1" width="43.85546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="25.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="60.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="9.85546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -6092,9 +6196,6 @@
       <c r="A2" t="s">
         <v>406</v>
       </c>
-      <c r="B2" t="s">
-        <v>467</v>
-      </c>
       <c r="C2" t="s">
         <v>407</v>
       </c>
@@ -6111,9 +6212,6 @@
       <c r="A4" t="s">
         <v>409</v>
       </c>
-      <c r="B4" t="s">
-        <v>467</v>
-      </c>
       <c r="C4" t="s">
         <v>410</v>
       </c>
@@ -6122,9 +6220,6 @@
       <c r="A5" t="s">
         <v>411</v>
       </c>
-      <c r="B5" t="s">
-        <v>467</v>
-      </c>
       <c r="C5" t="s">
         <v>412</v>
       </c>
@@ -6133,9 +6228,6 @@
       <c r="A6" t="s">
         <v>413</v>
       </c>
-      <c r="B6" t="s">
-        <v>467</v>
-      </c>
       <c r="C6" t="s">
         <v>414</v>
       </c>
@@ -6144,9 +6236,6 @@
       <c r="A7" t="s">
         <v>16</v>
       </c>
-      <c r="B7" t="s">
-        <v>467</v>
-      </c>
       <c r="C7" t="s">
         <v>415</v>
       </c>
@@ -6155,9 +6244,6 @@
       <c r="A8" t="s">
         <v>18</v>
       </c>
-      <c r="B8" t="s">
-        <v>467</v>
-      </c>
       <c r="C8" t="s">
         <v>416</v>
       </c>
@@ -6166,9 +6252,6 @@
       <c r="A9" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B9" t="s">
-        <v>467</v>
-      </c>
       <c r="C9" t="s">
         <v>417</v>
       </c>
@@ -6177,9 +6260,6 @@
       <c r="A10" s="12" t="s">
         <v>418</v>
       </c>
-      <c r="B10" t="s">
-        <v>467</v>
-      </c>
       <c r="C10" t="s">
         <v>419</v>
       </c>
@@ -6188,9 +6268,6 @@
       <c r="A11" t="s">
         <v>70</v>
       </c>
-      <c r="B11" t="s">
-        <v>467</v>
-      </c>
       <c r="C11" t="s">
         <v>420</v>
       </c>
@@ -6199,9 +6276,6 @@
       <c r="A12" s="14" t="s">
         <v>425</v>
       </c>
-      <c r="B12" t="s">
-        <v>467</v>
-      </c>
       <c r="C12" t="s">
         <v>422</v>
       </c>
@@ -6210,9 +6284,6 @@
       <c r="A13" s="4" t="s">
         <v>421</v>
       </c>
-      <c r="B13" t="s">
-        <v>467</v>
-      </c>
       <c r="C13" t="s">
         <v>423</v>
       </c>
@@ -6221,9 +6292,6 @@
       <c r="A14" s="4" t="s">
         <v>421</v>
       </c>
-      <c r="B14" t="s">
-        <v>467</v>
-      </c>
       <c r="C14" t="s">
         <v>424</v>
       </c>
@@ -6232,30 +6300,18 @@
       <c r="A15" s="13" t="s">
         <v>426</v>
       </c>
-      <c r="B15" t="s">
-        <v>467</v>
-      </c>
       <c r="C15" t="s">
         <v>431</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="13"/>
-      <c r="B16" t="s">
-        <v>467</v>
-      </c>
       <c r="C16" s="13"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>467</v>
-      </c>
       <c r="C17" s="18"/>
     </row>
     <row r="18" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>467</v>
-      </c>
       <c r="C18" s="18"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -6279,14 +6335,14 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="B2" sqref="B2:B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="42.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="11.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="60.42578125" collapsed="true"/>
+    <col min="1" max="1" width="42" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11.42578125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="60.42578125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -6305,9 +6361,6 @@
       <c r="A2" s="13" t="s">
         <v>428</v>
       </c>
-      <c r="B2" t="s">
-        <v>467</v>
-      </c>
       <c r="C2" s="13" t="s">
         <v>428</v>
       </c>
@@ -6316,9 +6369,6 @@
       <c r="A3" t="s">
         <v>427</v>
       </c>
-      <c r="B3" t="s">
-        <v>467</v>
-      </c>
       <c r="C3" s="18" t="s">
         <v>430</v>
       </c>
@@ -6327,9 +6377,6 @@
       <c r="A4" t="s">
         <v>429</v>
       </c>
-      <c r="B4" t="s">
-        <v>467</v>
-      </c>
       <c r="C4" s="18" t="s">
         <v>432</v>
       </c>
@@ -6338,9 +6385,6 @@
       <c r="A5" t="s">
         <v>433</v>
       </c>
-      <c r="B5" t="s">
-        <v>467</v>
-      </c>
       <c r="C5" t="s">
         <v>434</v>
       </c>
@@ -6349,9 +6393,6 @@
       <c r="A6" t="s">
         <v>435</v>
       </c>
-      <c r="B6" t="s">
-        <v>467</v>
-      </c>
       <c r="C6" t="s">
         <v>438</v>
       </c>
@@ -6360,9 +6401,6 @@
       <c r="A7" t="s">
         <v>436</v>
       </c>
-      <c r="B7" t="s">
-        <v>467</v>
-      </c>
       <c r="C7" t="s">
         <v>439</v>
       </c>
@@ -6371,9 +6409,6 @@
       <c r="A8" t="s">
         <v>437</v>
       </c>
-      <c r="B8" t="s">
-        <v>467</v>
-      </c>
       <c r="C8" t="s">
         <v>440</v>
       </c>
@@ -6382,9 +6417,6 @@
       <c r="A9" t="s">
         <v>441</v>
       </c>
-      <c r="B9" t="s">
-        <v>467</v>
-      </c>
       <c r="C9" t="s">
         <v>442</v>
       </c>
@@ -6393,9 +6425,6 @@
       <c r="A10" s="13" t="s">
         <v>448</v>
       </c>
-      <c r="B10" t="s">
-        <v>467</v>
-      </c>
       <c r="C10" t="s">
         <v>445</v>
       </c>
@@ -6404,9 +6433,6 @@
       <c r="A11" s="13" t="s">
         <v>443</v>
       </c>
-      <c r="B11" t="s">
-        <v>467</v>
-      </c>
       <c r="C11" t="s">
         <v>446</v>
       </c>
@@ -6414,9 +6440,6 @@
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>444</v>
-      </c>
-      <c r="B12" t="s">
-        <v>467</v>
       </c>
       <c r="C12" t="s">
         <v>447</v>
@@ -6432,14 +6455,14 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:C12"/>
+      <selection activeCell="B2" sqref="B2:B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="73.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="8.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="52.42578125" collapsed="true"/>
+    <col min="1" max="1" width="73.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="8.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="52.42578125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -6457,9 +6480,6 @@
       <c r="A2" s="13" t="s">
         <v>449</v>
       </c>
-      <c r="B2" t="s">
-        <v>467</v>
-      </c>
       <c r="C2" s="13" t="s">
         <v>450</v>
       </c>
@@ -6468,9 +6488,6 @@
       <c r="A3" t="s">
         <v>451</v>
       </c>
-      <c r="B3" t="s">
-        <v>467</v>
-      </c>
       <c r="C3" t="s">
         <v>452</v>
       </c>
@@ -6479,9 +6496,6 @@
       <c r="A4" t="s">
         <v>18</v>
       </c>
-      <c r="B4" t="s">
-        <v>467</v>
-      </c>
       <c r="C4" t="s">
         <v>453</v>
       </c>
@@ -6490,9 +6504,6 @@
       <c r="A5" t="s">
         <v>454</v>
       </c>
-      <c r="B5" t="s">
-        <v>467</v>
-      </c>
       <c r="C5" t="s">
         <v>459</v>
       </c>
@@ -6501,9 +6512,6 @@
       <c r="A6" t="s">
         <v>455</v>
       </c>
-      <c r="B6" t="s">
-        <v>467</v>
-      </c>
       <c r="C6" t="s">
         <v>460</v>
       </c>
@@ -6512,9 +6520,6 @@
       <c r="A7" t="s">
         <v>456</v>
       </c>
-      <c r="B7" t="s">
-        <v>467</v>
-      </c>
       <c r="C7" t="s">
         <v>461</v>
       </c>
@@ -6523,9 +6528,6 @@
       <c r="A8" s="14" t="s">
         <v>457</v>
       </c>
-      <c r="B8" t="s">
-        <v>467</v>
-      </c>
       <c r="C8" t="s">
         <v>462</v>
       </c>
@@ -6534,9 +6536,6 @@
       <c r="A9" t="s">
         <v>458</v>
       </c>
-      <c r="B9" t="s">
-        <v>467</v>
-      </c>
       <c r="C9" t="s">
         <v>463</v>
       </c>
@@ -6545,9 +6544,6 @@
       <c r="A10" t="s">
         <v>105</v>
       </c>
-      <c r="B10" t="s">
-        <v>467</v>
-      </c>
       <c r="C10" t="s">
         <v>464</v>
       </c>
@@ -6556,9 +6552,6 @@
       <c r="A11" t="s">
         <v>18</v>
       </c>
-      <c r="B11" t="s">
-        <v>467</v>
-      </c>
       <c r="C11" t="s">
         <v>465</v>
       </c>
@@ -6566,9 +6559,6 @@
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="19" t="s">
         <v>107</v>
-      </c>
-      <c r="B12" t="s">
-        <v>467</v>
       </c>
       <c r="C12" t="s">
         <v>466</v>
@@ -6585,15 +6575,15 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="56.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="9.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="84.42578125" collapsed="true"/>
+    <col min="1" max="1" width="56.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="9.5703125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="84.42578125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -6782,7 +6772,7 @@
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
   <controls>
-    <mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1025" r:id="rId4" name="Control 1">
           <controlPr defaultSize="0" r:id="rId5">

--- a/src/main/java/com/ghana/app/qa/testdata/GhanaVisaTestData1.xlsx
+++ b/src/main/java/com/ghana/app/qa/testdata/GhanaVisaTestData1.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1079" uniqueCount="569">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1085" uniqueCount="569">
   <si>
     <t>Visa_Type</t>
   </si>
@@ -1749,7 +1749,7 @@
     <numFmt numFmtId="166" formatCode="00000"/>
     <numFmt numFmtId="167" formatCode="0;[Red]0"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2251,13 +2251,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="28.5703125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="23.28515625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="22.140625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="17.85546875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="19" style="3" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="29.42578125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="28.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="23.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="22.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="3" width="19.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="29.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -2589,8 +2589,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="58.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="64.5703125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="58.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="64.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -2878,10 +2878,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="68.85546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="8" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="63.42578125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="102" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="68.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="8.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="63.42578125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="102.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -2932,9 +2932,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="69.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="12.85546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="60.5703125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="69.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="12.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="60.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -3432,9 +3432,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="60.7109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.42578125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="64.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="60.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="11.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="64.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -3497,15 +3497,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="54.7109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="14.42578125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10.85546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.140625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="20" style="10" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="16.28515625" style="3" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="15.5703125" style="3" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="13.42578125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="11.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="54.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="14.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="10.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="10" width="20.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="3" width="16.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="3" width="15.5703125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="11.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -3905,15 +3905,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="10.85546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="9.42578125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="20.5703125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="14.5703125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="13.140625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="19" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="8.28515625" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12.140625" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="13.140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" customWidth="true" width="10.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="9.42578125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="20.5703125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="14.5703125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="8.28515625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="13.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -4518,13 +4518,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.7109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="20.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11.85546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="15.7109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="22.28515625" style="6" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="9.140625" style="7" collapsed="1"/>
-    <col min="15" max="15" width="10.7109375" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="7.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="20.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="6" width="22.28515625" collapsed="true"/>
+    <col min="11" max="11" style="7" width="9.140625" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" style="3" width="10.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
@@ -5154,9 +5154,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="7" width="14.42578125" customWidth="1" collapsed="1"/>
-    <col min="8" max="9" width="17.5703125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="13" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" customWidth="true" width="14.42578125" collapsed="true"/>
+    <col min="8" max="9" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="13.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
@@ -6175,10 +6175,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="43.85546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="25.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="60.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="9.85546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="43.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="25.28515625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="60.42578125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="9.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -6196,6 +6196,9 @@
       <c r="A2" t="s">
         <v>406</v>
       </c>
+      <c r="B2" t="s">
+        <v>467</v>
+      </c>
       <c r="C2" t="s">
         <v>407</v>
       </c>
@@ -6212,6 +6215,9 @@
       <c r="A4" t="s">
         <v>409</v>
       </c>
+      <c r="B4" t="s">
+        <v>467</v>
+      </c>
       <c r="C4" t="s">
         <v>410</v>
       </c>
@@ -6219,6 +6225,9 @@
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>411</v>
+      </c>
+      <c r="B5" t="s">
+        <v>467</v>
       </c>
       <c r="C5" t="s">
         <v>412</v>
@@ -6340,9 +6349,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="42" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.42578125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="60.42578125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="42.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="11.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="60.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -6460,9 +6469,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="73.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="8.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="52.42578125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="73.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="8.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="52.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -6581,9 +6590,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="56.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="9.5703125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="84.42578125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="56.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="9.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="84.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -6772,7 +6781,7 @@
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
   <controls>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:AlternateContent>
       <mc:Choice Requires="x14">
         <control shapeId="1025" r:id="rId4" name="Control 1">
           <controlPr defaultSize="0" r:id="rId5">

--- a/src/main/java/com/ghana/app/qa/testdata/GhanaVisaTestData1.xlsx
+++ b/src/main/java/com/ghana/app/qa/testdata/GhanaVisaTestData1.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1085" uniqueCount="569">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1114" uniqueCount="569">
   <si>
     <t>Visa_Type</t>
   </si>
@@ -6237,6 +6237,9 @@
       <c r="A6" t="s">
         <v>413</v>
       </c>
+      <c r="B6" t="s">
+        <v>467</v>
+      </c>
       <c r="C6" t="s">
         <v>414</v>
       </c>
@@ -6245,6 +6248,9 @@
       <c r="A7" t="s">
         <v>16</v>
       </c>
+      <c r="B7" t="s">
+        <v>467</v>
+      </c>
       <c r="C7" t="s">
         <v>415</v>
       </c>
@@ -6253,6 +6259,9 @@
       <c r="A8" t="s">
         <v>18</v>
       </c>
+      <c r="B8" t="s">
+        <v>467</v>
+      </c>
       <c r="C8" t="s">
         <v>416</v>
       </c>
@@ -6261,6 +6270,9 @@
       <c r="A9" s="12" t="s">
         <v>26</v>
       </c>
+      <c r="B9" t="s">
+        <v>467</v>
+      </c>
       <c r="C9" t="s">
         <v>417</v>
       </c>
@@ -6269,6 +6281,9 @@
       <c r="A10" s="12" t="s">
         <v>418</v>
       </c>
+      <c r="B10" t="s">
+        <v>467</v>
+      </c>
       <c r="C10" t="s">
         <v>419</v>
       </c>
@@ -6276,6 +6291,9 @@
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>70</v>
+      </c>
+      <c r="B11" t="s">
+        <v>467</v>
       </c>
       <c r="C11" t="s">
         <v>420</v>

--- a/src/main/java/com/ghana/app/qa/testdata/GhanaVisaTestData1.xlsx
+++ b/src/main/java/com/ghana/app/qa/testdata/GhanaVisaTestData1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="16320" windowHeight="2805" firstSheet="4" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="16320" windowHeight="2805"/>
   </bookViews>
   <sheets>
     <sheet name="SignUp" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1114" uniqueCount="569">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1129" uniqueCount="567">
   <si>
     <t>Visa_Type</t>
   </si>
@@ -1335,9 +1335,6 @@
     <t>Application ID is after SignUp</t>
   </si>
   <si>
-    <t>Rakesh</t>
-  </si>
-  <si>
     <t>Mohan</t>
   </si>
   <si>
@@ -1351,9 +1348,6 @@
   </si>
   <si>
     <t>Pass the last name</t>
-  </si>
-  <si>
-    <t>PA1234N</t>
   </si>
   <si>
     <t>Pass the  passport number</t>
@@ -1743,13 +1737,15 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="4">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="mm/dd/yyyy"/>
     <numFmt numFmtId="165" formatCode="[&lt;=9999999]###\-####;\(###\)\ ###\-####"/>
     <numFmt numFmtId="166" formatCode="00000"/>
     <numFmt numFmtId="167" formatCode="0;[Red]0"/>
+    <numFmt numFmtId="168" formatCode="ddmmyyyy"/>
+    <numFmt numFmtId="169" formatCode="ddmmyy"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1848,13 +1844,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1891,6 +1886,11 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2243,24 +2243,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="17.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="28.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="23.28515625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="22.140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="17.85546875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="3" width="19.0" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="29.42578125" collapsed="true"/>
+    <col min="1" max="1" width="17.85546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="28.5703125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="23.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="22.140625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="17.85546875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="19" style="3" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="29.42578125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2282,8 +2283,11 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -2299,14 +2303,17 @@
       <c r="E2">
         <v>9856236556</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="23">
         <v>34743</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -2322,14 +2329,17 @@
       <c r="E3">
         <v>7854564123</v>
       </c>
-      <c r="F3" s="3">
-        <v>34510</v>
+      <c r="F3" s="23">
+        <v>34744</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -2345,14 +2355,17 @@
       <c r="E4">
         <v>7896541230</v>
       </c>
-      <c r="F4" s="3">
-        <v>32217</v>
+      <c r="F4" s="23">
+        <v>34745</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -2368,14 +2381,17 @@
       <c r="E5">
         <v>8596321470</v>
       </c>
-      <c r="F5" s="3">
-        <v>32726</v>
+      <c r="F5" s="23">
+        <v>34746</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -2391,14 +2407,17 @@
       <c r="E6">
         <v>8659823147</v>
       </c>
-      <c r="F6" s="3">
-        <v>35934</v>
+      <c r="F6" s="23">
+        <v>34747</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -2414,14 +2433,17 @@
       <c r="E7">
         <v>8574963210</v>
       </c>
-      <c r="F7" s="3">
-        <v>33570</v>
+      <c r="F7" s="23">
+        <v>34748</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -2437,14 +2459,17 @@
       <c r="E8">
         <v>8423659851</v>
       </c>
-      <c r="F8" s="3">
-        <v>36132</v>
+      <c r="F8" s="23">
+        <v>34749</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -2460,14 +2485,17 @@
       <c r="E9">
         <v>8745963210</v>
       </c>
-      <c r="F9" s="3">
-        <v>36655</v>
+      <c r="F9" s="23">
+        <v>34750</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -2483,14 +2511,17 @@
       <c r="E10">
         <v>8236597401</v>
       </c>
-      <c r="F10" s="3">
-        <v>36296</v>
+      <c r="F10" s="23">
+        <v>34751</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -2506,14 +2537,17 @@
       <c r="E11">
         <v>8523697410</v>
       </c>
-      <c r="F11" s="3">
-        <v>35296</v>
+      <c r="F11" s="23">
+        <v>34752</v>
       </c>
       <c r="G11" s="4" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H11" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -2529,14 +2563,17 @@
       <c r="E12">
         <v>8352142698</v>
       </c>
-      <c r="F12" s="3">
-        <v>35713</v>
+      <c r="F12" s="23">
+        <v>34753</v>
       </c>
       <c r="G12" s="4" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H12" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -2552,11 +2589,14 @@
       <c r="E13">
         <v>8562323658</v>
       </c>
-      <c r="F13" s="3">
-        <v>36026</v>
+      <c r="F13" s="23">
+        <v>34754</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>85</v>
+      </c>
+      <c r="H13" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -2589,52 +2629,52 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="58.28515625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="64.5703125" collapsed="true"/>
+    <col min="1" max="1" width="58.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="64.5703125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="14" t="s">
         <v>403</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="15" t="s">
         <v>404</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="16" t="s">
         <v>405</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="12" t="s">
+        <v>483</v>
+      </c>
+      <c r="B2" t="s">
+        <v>465</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="19" t="s">
+        <v>484</v>
+      </c>
+      <c r="B3" t="s">
+        <v>465</v>
+      </c>
+      <c r="C3" t="s">
         <v>485</v>
       </c>
-      <c r="B2" t="s">
-        <v>467</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
+        <v>487</v>
+      </c>
+      <c r="B4" t="s">
+        <v>465</v>
+      </c>
+      <c r="C4" t="s">
         <v>486</v>
-      </c>
-      <c r="B3" t="s">
-        <v>467</v>
-      </c>
-      <c r="C3" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
-        <v>489</v>
-      </c>
-      <c r="B4" t="s">
-        <v>467</v>
-      </c>
-      <c r="C4" t="s">
-        <v>488</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -2642,29 +2682,29 @@
         <v>395</v>
       </c>
       <c r="C5" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="B6" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C6" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B7" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C7" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -2672,21 +2712,21 @@
         <v>338</v>
       </c>
       <c r="B8" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C8" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="19" t="s">
-        <v>496</v>
+      <c r="A9" s="18" t="s">
+        <v>494</v>
       </c>
       <c r="B9" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C9" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -2694,10 +2734,10 @@
         <v>363</v>
       </c>
       <c r="B10" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C10" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -2705,10 +2745,10 @@
         <v>249</v>
       </c>
       <c r="B11" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C11" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -2716,10 +2756,10 @@
         <v>255</v>
       </c>
       <c r="B12" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C12" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -2727,10 +2767,10 @@
         <v>251</v>
       </c>
       <c r="B13" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C13" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -2738,10 +2778,10 @@
         <v>253</v>
       </c>
       <c r="B14" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C14" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -2749,21 +2789,21 @@
         <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C15" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="21" t="s">
-        <v>497</v>
+      <c r="A16" s="20" t="s">
+        <v>495</v>
       </c>
       <c r="B16" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C16" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -2771,10 +2811,10 @@
         <v>371</v>
       </c>
       <c r="B17" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C17" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -2782,10 +2822,10 @@
         <v>383</v>
       </c>
       <c r="B18" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C18" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -2793,10 +2833,10 @@
         <v>235</v>
       </c>
       <c r="B19" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C19" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -2804,10 +2844,10 @@
         <v>241</v>
       </c>
       <c r="B20" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C20" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -2815,10 +2855,10 @@
         <v>237</v>
       </c>
       <c r="B21" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C21" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -2826,10 +2866,10 @@
         <v>239</v>
       </c>
       <c r="B22" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C22" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -2837,29 +2877,29 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C23" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="22" t="s">
-        <v>498</v>
+      <c r="A24" s="21" t="s">
+        <v>496</v>
       </c>
       <c r="B24" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C24" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="C25" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
   </sheetData>
@@ -2878,43 +2918,43 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="68.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="8.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="63.42578125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="102.0" collapsed="true"/>
+    <col min="1" max="1" width="68.85546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="8" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="63.42578125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="102" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="14" t="s">
         <v>403</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="15" t="s">
         <v>404</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="16" t="s">
         <v>405</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="12" t="s">
+        <v>515</v>
+      </c>
+      <c r="B2" t="s">
+        <v>465</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="19" t="s">
+        <v>516</v>
+      </c>
+      <c r="B3" t="s">
+        <v>465</v>
+      </c>
+      <c r="C3" t="s">
         <v>517</v>
-      </c>
-      <c r="B2" t="s">
-        <v>467</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
-        <v>518</v>
-      </c>
-      <c r="B3" t="s">
-        <v>467</v>
-      </c>
-      <c r="C3" t="s">
-        <v>519</v>
       </c>
     </row>
   </sheetData>
@@ -2932,488 +2972,488 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="69.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="12.85546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="60.5703125" collapsed="true"/>
+    <col min="1" max="1" width="69.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12.85546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="60.5703125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="14" t="s">
         <v>403</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="15" t="s">
         <v>404</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="16" t="s">
         <v>405</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
-        <v>521</v>
+      <c r="A2" s="12" t="s">
+        <v>519</v>
       </c>
       <c r="B2" t="s">
-        <v>467</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>521</v>
+        <v>465</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>519</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
-        <v>520</v>
+      <c r="A3" s="19" t="s">
+        <v>518</v>
       </c>
       <c r="B3" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C3" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="C4" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="C5" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="C6" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="C7" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="C8" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="C9" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
-        <v>528</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>528</v>
+      <c r="A11" s="10" t="s">
+        <v>526</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>526</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="B12" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C12" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B13" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C13" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="B14" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C14" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="B15" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C15" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B16" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C16" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B17" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C17" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="B18" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C18" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="B19" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C19" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="11" t="s">
-        <v>536</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>536</v>
+      <c r="A20" s="10" t="s">
+        <v>534</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>534</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="B21" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C21" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="B22" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C22" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="B23" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C23" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="B24" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C24" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="B25" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C25" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="B26" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C26" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="B27" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C27" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="B28" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C28" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="B29" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C29" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="B30" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C30" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="11" t="s">
-        <v>547</v>
-      </c>
-      <c r="C31" s="11" t="s">
-        <v>547</v>
+      <c r="A31" s="10" t="s">
+        <v>545</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>545</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="B32" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C32" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="B33" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C33" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="B34" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C34" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="B35" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C35" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="B36" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C36" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="B37" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C37" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="B38" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C38" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="B39" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C39" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="B40" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C40" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B41" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C41" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="B42" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C42" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B43" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C43" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="B44" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C44" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="B45" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C45" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B46" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C46" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="B47" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C47" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
     </row>
   </sheetData>
@@ -3432,53 +3472,53 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="60.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="11.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="64.7109375" collapsed="true"/>
+    <col min="1" max="1" width="60.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11.42578125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="64.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="14" t="s">
         <v>403</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="15" t="s">
         <v>404</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="16" t="s">
         <v>405</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="12" t="s">
+        <v>563</v>
+      </c>
+      <c r="B2" t="s">
+        <v>465</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="22" t="s">
+        <v>564</v>
+      </c>
+      <c r="B3" t="s">
+        <v>465</v>
+      </c>
+      <c r="C3" t="s">
         <v>565</v>
-      </c>
-      <c r="B2" t="s">
-        <v>467</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="23" t="s">
-        <v>566</v>
-      </c>
-      <c r="B3" t="s">
-        <v>467</v>
-      </c>
-      <c r="C3" t="s">
-        <v>567</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="B4" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C4" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
   </sheetData>
@@ -3492,20 +3532,20 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="B1" sqref="B1:B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="54.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="14.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="10.85546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="10" width="20.0" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="3" width="16.28515625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="3" width="15.5703125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="13.42578125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="1" max="1" width="54.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="14.42578125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="10.85546875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="20" style="9" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="16.28515625" style="3" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="15.5703125" style="3" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="13.42578125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="11.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -3521,7 +3561,7 @@
       <c r="D1" t="s">
         <v>54</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="9" t="s">
         <v>343</v>
       </c>
       <c r="F1" t="s">
@@ -3550,7 +3590,7 @@
       <c r="D2" t="s">
         <v>57</v>
       </c>
-      <c r="E2" s="10">
+      <c r="E2" s="9">
         <v>666141001</v>
       </c>
       <c r="F2" t="s">
@@ -3562,7 +3602,7 @@
       <c r="H2" t="s">
         <v>40</v>
       </c>
-      <c r="I2" s="3">
+      <c r="I2" s="23">
         <v>44816</v>
       </c>
     </row>
@@ -3579,7 +3619,7 @@
       <c r="D3" t="s">
         <v>58</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3" s="9">
         <v>666141002</v>
       </c>
       <c r="F3" t="s">
@@ -3591,7 +3631,7 @@
       <c r="H3" t="s">
         <v>40</v>
       </c>
-      <c r="I3" s="3">
+      <c r="I3" s="23">
         <v>44537</v>
       </c>
     </row>
@@ -3608,7 +3648,7 @@
       <c r="D4" t="s">
         <v>59</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4" s="9">
         <v>666141003</v>
       </c>
       <c r="F4" t="s">
@@ -3620,7 +3660,7 @@
       <c r="H4" t="s">
         <v>41</v>
       </c>
-      <c r="I4" s="3">
+      <c r="I4" s="23">
         <v>45757</v>
       </c>
     </row>
@@ -3637,7 +3677,7 @@
       <c r="D5" t="s">
         <v>60</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E5" s="9">
         <v>666141004</v>
       </c>
       <c r="F5" t="s">
@@ -3649,7 +3689,7 @@
       <c r="H5" t="s">
         <v>42</v>
       </c>
-      <c r="I5" s="3">
+      <c r="I5" s="23">
         <v>44380</v>
       </c>
     </row>
@@ -3666,7 +3706,7 @@
       <c r="D6" t="s">
         <v>61</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E6" s="9">
         <v>666141005</v>
       </c>
       <c r="F6" t="s">
@@ -3678,7 +3718,7 @@
       <c r="H6" t="s">
         <v>43</v>
       </c>
-      <c r="I6" s="3">
+      <c r="I6" s="23">
         <v>44868</v>
       </c>
     </row>
@@ -3695,7 +3735,7 @@
       <c r="D7" t="s">
         <v>62</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E7" s="9">
         <v>666141006</v>
       </c>
       <c r="F7" t="s">
@@ -3707,7 +3747,7 @@
       <c r="H7" t="s">
         <v>44</v>
       </c>
-      <c r="I7" s="3">
+      <c r="I7" s="23">
         <v>46667</v>
       </c>
     </row>
@@ -3724,7 +3764,7 @@
       <c r="D8" t="s">
         <v>63</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E8" s="9">
         <v>666141007</v>
       </c>
       <c r="F8" t="s">
@@ -3736,7 +3776,7 @@
       <c r="H8" t="s">
         <v>45</v>
       </c>
-      <c r="I8" s="3">
+      <c r="I8" s="23">
         <v>46647</v>
       </c>
     </row>
@@ -3753,7 +3793,7 @@
       <c r="D9" t="s">
         <v>65</v>
       </c>
-      <c r="E9" s="10">
+      <c r="E9" s="9">
         <v>666141008</v>
       </c>
       <c r="F9" t="s">
@@ -3765,7 +3805,7 @@
       <c r="H9" t="s">
         <v>46</v>
       </c>
-      <c r="I9" s="3">
+      <c r="I9" s="23">
         <v>46750</v>
       </c>
     </row>
@@ -3782,7 +3822,7 @@
       <c r="D10" t="s">
         <v>64</v>
       </c>
-      <c r="E10" s="10">
+      <c r="E10" s="9">
         <v>666141009</v>
       </c>
       <c r="F10" t="s">
@@ -3794,7 +3834,7 @@
       <c r="H10" t="s">
         <v>47</v>
       </c>
-      <c r="I10" s="3">
+      <c r="I10" s="23">
         <v>44242</v>
       </c>
     </row>
@@ -3811,7 +3851,7 @@
       <c r="D11" t="s">
         <v>66</v>
       </c>
-      <c r="E11" s="10">
+      <c r="E11" s="9">
         <v>666141010</v>
       </c>
       <c r="F11" t="s">
@@ -3823,7 +3863,7 @@
       <c r="H11" t="s">
         <v>48</v>
       </c>
-      <c r="I11" s="3">
+      <c r="I11" s="23">
         <v>45402</v>
       </c>
     </row>
@@ -3840,7 +3880,7 @@
       <c r="D12" t="s">
         <v>67</v>
       </c>
-      <c r="E12" s="10">
+      <c r="E12" s="9">
         <v>666141011</v>
       </c>
       <c r="F12" t="s">
@@ -3852,7 +3892,7 @@
       <c r="H12" t="s">
         <v>49</v>
       </c>
-      <c r="I12" s="3">
+      <c r="I12" s="23">
         <v>45271</v>
       </c>
     </row>
@@ -3869,7 +3909,7 @@
       <c r="D13" t="s">
         <v>68</v>
       </c>
-      <c r="E13" s="10">
+      <c r="E13" s="9">
         <v>666141012</v>
       </c>
       <c r="F13" t="s">
@@ -3881,7 +3921,7 @@
       <c r="H13" t="s">
         <v>50</v>
       </c>
-      <c r="I13" s="3">
+      <c r="I13" s="23">
         <v>47339</v>
       </c>
     </row>
@@ -3905,15 +3945,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" customWidth="true" width="10.85546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="9.42578125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="20.5703125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="14.5703125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="13.140625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="8.28515625" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="12.140625" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="3" max="3" width="10.85546875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="9.42578125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="20.5703125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="14.5703125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="13.140625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="19" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="8.28515625" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="12.140625" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="13.140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -4513,18 +4553,18 @@
   <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="7.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="20.28515625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="11.85546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="15.7109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="6" width="22.28515625" collapsed="true"/>
-    <col min="11" max="11" style="7" width="9.140625" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" style="3" width="10.7109375" collapsed="true"/>
+    <col min="1" max="1" width="7.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="20.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.85546875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15.7109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="22.28515625" style="5" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="9.140625" style="6" collapsed="1"/>
+    <col min="15" max="15" width="10.7109375" style="3" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
@@ -4540,7 +4580,7 @@
       <c r="D1" t="s">
         <v>146</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>147</v>
       </c>
       <c r="F1" t="s">
@@ -4558,7 +4598,7 @@
       <c r="J1" t="s">
         <v>150</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="6" t="s">
         <v>151</v>
       </c>
       <c r="L1" t="s">
@@ -4570,7 +4610,7 @@
       <c r="N1" t="s">
         <v>96</v>
       </c>
-      <c r="O1" s="9" t="s">
+      <c r="O1" s="8" t="s">
         <v>152</v>
       </c>
     </row>
@@ -4584,10 +4624,10 @@
       <c r="C2" t="s">
         <v>101</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2" s="7">
         <v>9958474648</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="5">
         <v>9779900918</v>
       </c>
       <c r="F2" t="s">
@@ -4605,7 +4645,7 @@
       <c r="J2" t="s">
         <v>158</v>
       </c>
-      <c r="K2" s="7">
+      <c r="K2" s="6">
         <v>110027</v>
       </c>
       <c r="L2" t="s">
@@ -4617,7 +4657,7 @@
       <c r="N2" t="s">
         <v>72</v>
       </c>
-      <c r="O2" s="9">
+      <c r="O2" s="24">
         <v>43527</v>
       </c>
     </row>
@@ -4634,7 +4674,7 @@
       <c r="D3">
         <v>9983066655</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="5">
         <v>9920339880</v>
       </c>
       <c r="F3" t="s">
@@ -4652,7 +4692,7 @@
       <c r="J3" t="s">
         <v>164</v>
       </c>
-      <c r="K3" s="7">
+      <c r="K3" s="6">
         <v>110028</v>
       </c>
       <c r="L3" t="s">
@@ -4664,7 +4704,7 @@
       <c r="N3" t="s">
         <v>72</v>
       </c>
-      <c r="O3" s="9">
+      <c r="O3" s="24">
         <v>43667</v>
       </c>
     </row>
@@ -4681,7 +4721,7 @@
       <c r="D4">
         <v>9351555617</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="5">
         <v>9820325424</v>
       </c>
       <c r="F4" t="s">
@@ -4699,7 +4739,7 @@
       <c r="J4" t="s">
         <v>170</v>
       </c>
-      <c r="K4" s="7">
+      <c r="K4" s="6">
         <v>110029</v>
       </c>
       <c r="L4" t="s">
@@ -4711,7 +4751,7 @@
       <c r="N4" t="s">
         <v>72</v>
       </c>
-      <c r="O4" s="9">
+      <c r="O4" s="24">
         <v>43539</v>
       </c>
     </row>
@@ -4728,7 +4768,7 @@
       <c r="D5">
         <v>9408108155</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="5">
         <v>9314406878</v>
       </c>
       <c r="F5" t="s">
@@ -4746,7 +4786,7 @@
       <c r="J5" t="s">
         <v>176</v>
       </c>
-      <c r="K5" s="7">
+      <c r="K5" s="6">
         <v>110030</v>
       </c>
       <c r="L5" t="s">
@@ -4758,7 +4798,7 @@
       <c r="N5" t="s">
         <v>72</v>
       </c>
-      <c r="O5" s="9">
+      <c r="O5" s="24">
         <v>43712</v>
       </c>
     </row>
@@ -4775,7 +4815,7 @@
       <c r="D6">
         <v>9829439781</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="5">
         <v>9352628478</v>
       </c>
       <c r="F6" t="s">
@@ -4793,7 +4833,7 @@
       <c r="J6" t="s">
         <v>180</v>
       </c>
-      <c r="K6" s="7">
+      <c r="K6" s="6">
         <v>110031</v>
       </c>
       <c r="L6" t="s">
@@ -4805,7 +4845,7 @@
       <c r="N6" t="s">
         <v>72</v>
       </c>
-      <c r="O6" s="9">
+      <c r="O6" s="24">
         <v>43635</v>
       </c>
     </row>
@@ -4822,7 +4862,7 @@
       <c r="D7">
         <v>9829041206</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="5">
         <v>8885586288</v>
       </c>
       <c r="F7" t="s">
@@ -4840,7 +4880,7 @@
       <c r="J7" t="s">
         <v>186</v>
       </c>
-      <c r="K7" s="7">
+      <c r="K7" s="6">
         <v>110032</v>
       </c>
       <c r="L7" t="s">
@@ -4852,7 +4892,7 @@
       <c r="N7" t="s">
         <v>72</v>
       </c>
-      <c r="O7" s="9">
+      <c r="O7" s="24">
         <v>43599</v>
       </c>
     </row>
@@ -4869,7 +4909,7 @@
       <c r="D8">
         <v>9810001412</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="5">
         <v>9214555405</v>
       </c>
       <c r="F8" t="s">
@@ -4887,7 +4927,7 @@
       <c r="J8" t="s">
         <v>180</v>
       </c>
-      <c r="K8" s="7">
+      <c r="K8" s="6">
         <v>110033</v>
       </c>
       <c r="L8" t="s">
@@ -4899,7 +4939,7 @@
       <c r="N8" t="s">
         <v>72</v>
       </c>
-      <c r="O8" s="9">
+      <c r="O8" s="24">
         <v>43676</v>
       </c>
     </row>
@@ -4916,7 +4956,7 @@
       <c r="D9">
         <v>9810925170</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="5">
         <v>9828046461</v>
       </c>
       <c r="F9" t="s">
@@ -4934,7 +4974,7 @@
       <c r="J9" t="s">
         <v>158</v>
       </c>
-      <c r="K9" s="7">
+      <c r="K9" s="6">
         <v>110034</v>
       </c>
       <c r="L9" t="s">
@@ -4946,7 +4986,7 @@
       <c r="N9" t="s">
         <v>72</v>
       </c>
-      <c r="O9" s="9">
+      <c r="O9" s="24">
         <v>43550</v>
       </c>
     </row>
@@ -4963,7 +5003,7 @@
       <c r="D10">
         <v>9910019454</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="5">
         <v>9198168727</v>
       </c>
       <c r="F10" t="s">
@@ -4981,7 +5021,7 @@
       <c r="J10" t="s">
         <v>164</v>
       </c>
-      <c r="K10" s="7">
+      <c r="K10" s="6">
         <v>110035</v>
       </c>
       <c r="L10" t="s">
@@ -4993,7 +5033,7 @@
       <c r="N10" t="s">
         <v>72</v>
       </c>
-      <c r="O10" s="9">
+      <c r="O10" s="24">
         <v>43546</v>
       </c>
     </row>
@@ -5010,7 +5050,7 @@
       <c r="D11">
         <v>9820780846</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="5">
         <v>9891451786</v>
       </c>
       <c r="F11" t="s">
@@ -5028,7 +5068,7 @@
       <c r="J11" t="s">
         <v>170</v>
       </c>
-      <c r="K11" s="7">
+      <c r="K11" s="6">
         <v>110036</v>
       </c>
       <c r="L11" t="s">
@@ -5040,7 +5080,7 @@
       <c r="N11" t="s">
         <v>72</v>
       </c>
-      <c r="O11" s="9">
+      <c r="O11" s="24">
         <v>43662</v>
       </c>
     </row>
@@ -5057,7 +5097,7 @@
       <c r="D12">
         <v>8130191228</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="5">
         <v>9869045207</v>
       </c>
       <c r="F12" t="s">
@@ -5075,7 +5115,7 @@
       <c r="J12" t="s">
         <v>176</v>
       </c>
-      <c r="K12" s="7">
+      <c r="K12" s="6">
         <v>110037</v>
       </c>
       <c r="L12" t="s">
@@ -5087,7 +5127,7 @@
       <c r="N12" t="s">
         <v>72</v>
       </c>
-      <c r="O12" s="9">
+      <c r="O12" s="24">
         <v>43685</v>
       </c>
     </row>
@@ -5104,7 +5144,7 @@
       <c r="D13">
         <v>9967211333</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="5">
         <v>9313618617</v>
       </c>
       <c r="F13" t="s">
@@ -5122,7 +5162,7 @@
       <c r="J13" t="s">
         <v>180</v>
       </c>
-      <c r="K13" s="7">
+      <c r="K13" s="6">
         <v>110038</v>
       </c>
       <c r="L13" t="s">
@@ -5134,7 +5174,7 @@
       <c r="N13" t="s">
         <v>72</v>
       </c>
-      <c r="O13" s="9">
+      <c r="O13" s="24">
         <v>43470</v>
       </c>
     </row>
@@ -5148,15 +5188,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="Y11" sqref="Y11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="7" customWidth="true" width="14.42578125" collapsed="true"/>
-    <col min="8" max="9" customWidth="true" width="17.5703125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="7" max="7" width="14.42578125" customWidth="1" collapsed="1"/>
+    <col min="8" max="9" width="17.5703125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="13" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
@@ -5309,7 +5349,7 @@
       <c r="X2" t="s">
         <v>244</v>
       </c>
-      <c r="Y2" s="5">
+      <c r="Y2" s="25">
         <v>43572</v>
       </c>
     </row>
@@ -5386,7 +5426,7 @@
       <c r="X3" t="s">
         <v>244</v>
       </c>
-      <c r="Y3" s="5">
+      <c r="Y3" s="25">
         <v>43573</v>
       </c>
     </row>
@@ -5463,7 +5503,7 @@
       <c r="X4" t="s">
         <v>244</v>
       </c>
-      <c r="Y4" s="5">
+      <c r="Y4" s="25">
         <v>43574</v>
       </c>
     </row>
@@ -5540,7 +5580,7 @@
       <c r="X5" t="s">
         <v>244</v>
       </c>
-      <c r="Y5" s="5">
+      <c r="Y5" s="25">
         <v>43575</v>
       </c>
     </row>
@@ -5617,7 +5657,7 @@
       <c r="X6" t="s">
         <v>244</v>
       </c>
-      <c r="Y6" s="5">
+      <c r="Y6" s="25">
         <v>43576</v>
       </c>
     </row>
@@ -5694,7 +5734,7 @@
       <c r="X7" t="s">
         <v>244</v>
       </c>
-      <c r="Y7" s="5">
+      <c r="Y7" s="25">
         <v>43577</v>
       </c>
     </row>
@@ -5771,7 +5811,7 @@
       <c r="X8" t="s">
         <v>244</v>
       </c>
-      <c r="Y8" s="5">
+      <c r="Y8" s="25">
         <v>43578</v>
       </c>
     </row>
@@ -5848,7 +5888,7 @@
       <c r="X9" t="s">
         <v>244</v>
       </c>
-      <c r="Y9" s="5">
+      <c r="Y9" s="25">
         <v>43600</v>
       </c>
     </row>
@@ -5925,7 +5965,7 @@
       <c r="X10" t="s">
         <v>244</v>
       </c>
-      <c r="Y10" s="5">
+      <c r="Y10" s="25">
         <v>43632</v>
       </c>
     </row>
@@ -6002,7 +6042,7 @@
       <c r="X11" t="s">
         <v>244</v>
       </c>
-      <c r="Y11" s="5">
+      <c r="Y11" s="25">
         <v>43664</v>
       </c>
     </row>
@@ -6079,7 +6119,7 @@
       <c r="X12" t="s">
         <v>244</v>
       </c>
-      <c r="Y12" s="5">
+      <c r="Y12" s="25">
         <v>43696</v>
       </c>
     </row>
@@ -6156,7 +6196,7 @@
       <c r="X13" t="s">
         <v>244</v>
       </c>
-      <c r="Y13" s="5">
+      <c r="Y13" s="25">
         <v>43728</v>
       </c>
     </row>
@@ -6169,26 +6209,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="43.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="25.28515625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="60.42578125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="9.85546875" collapsed="true"/>
+    <col min="1" max="1" width="43.85546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="25.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="60.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="9.85546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
         <v>403</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="15" t="s">
         <v>404</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="16" t="s">
         <v>405</v>
       </c>
     </row>
@@ -6197,7 +6237,7 @@
         <v>406</v>
       </c>
       <c r="B2" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C2" t="s">
         <v>407</v>
@@ -6216,7 +6256,7 @@
         <v>409</v>
       </c>
       <c r="B4" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C4" t="s">
         <v>410</v>
@@ -6227,7 +6267,7 @@
         <v>411</v>
       </c>
       <c r="B5" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C5" t="s">
         <v>412</v>
@@ -6238,7 +6278,7 @@
         <v>413</v>
       </c>
       <c r="B6" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C6" t="s">
         <v>414</v>
@@ -6249,7 +6289,7 @@
         <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C7" t="s">
         <v>415</v>
@@ -6260,29 +6300,29 @@
         <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C8" t="s">
         <v>416</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="11" t="s">
         <v>26</v>
       </c>
       <c r="B9" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C9" t="s">
         <v>417</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="11" t="s">
         <v>418</v>
       </c>
       <c r="B10" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C10" t="s">
         <v>419</v>
@@ -6293,15 +6333,18 @@
         <v>70</v>
       </c>
       <c r="B11" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C11" t="s">
         <v>420</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="13" t="s">
         <v>425</v>
+      </c>
+      <c r="B12" t="s">
+        <v>465</v>
       </c>
       <c r="C12" t="s">
         <v>422</v>
@@ -6311,6 +6354,9 @@
       <c r="A13" s="4" t="s">
         <v>421</v>
       </c>
+      <c r="B13" t="s">
+        <v>465</v>
+      </c>
       <c r="C13" t="s">
         <v>423</v>
       </c>
@@ -6319,33 +6365,48 @@
       <c r="A14" s="4" t="s">
         <v>421</v>
       </c>
+      <c r="B14" t="s">
+        <v>465</v>
+      </c>
       <c r="C14" t="s">
         <v>424</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="12" t="s">
         <v>426</v>
+      </c>
+      <c r="B15" t="s">
+        <v>465</v>
       </c>
       <c r="C15" t="s">
         <v>431</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="13"/>
-      <c r="C16" s="13"/>
+      <c r="A16" s="12"/>
+      <c r="B16" t="s">
+        <v>465</v>
+      </c>
+      <c r="C16" s="12"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C17" s="18"/>
+      <c r="B17" t="s">
+        <v>465</v>
+      </c>
+      <c r="C17" s="17"/>
     </row>
     <row r="18" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C18" s="18"/>
+      <c r="B18" t="s">
+        <v>465</v>
+      </c>
+      <c r="C18" s="17"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="13"/>
+      <c r="A24" s="12"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="13"/>
+      <c r="A25" s="12"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -6362,33 +6423,36 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B13"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="42.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="11.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="60.42578125" collapsed="true"/>
+    <col min="1" max="1" width="42" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11.42578125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="60.42578125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="14" t="s">
         <v>403</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="15" t="s">
         <v>404</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="16" t="s">
         <v>405</v>
       </c>
-      <c r="D1" s="11"/>
+      <c r="D1" s="10"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="12" t="s">
         <v>428</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="B2" t="s">
+        <v>465</v>
+      </c>
+      <c r="C2" s="12" t="s">
         <v>428</v>
       </c>
     </row>
@@ -6396,7 +6460,10 @@
       <c r="A3" t="s">
         <v>427</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="B3" t="s">
+        <v>465</v>
+      </c>
+      <c r="C3" s="17" t="s">
         <v>430</v>
       </c>
     </row>
@@ -6404,7 +6471,10 @@
       <c r="A4" t="s">
         <v>429</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="B4" t="s">
+        <v>465</v>
+      </c>
+      <c r="C4" s="17" t="s">
         <v>432</v>
       </c>
     </row>
@@ -6412,64 +6482,88 @@
       <c r="A5" t="s">
         <v>433</v>
       </c>
+      <c r="B5" t="s">
+        <v>465</v>
+      </c>
       <c r="C5" t="s">
         <v>434</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>435</v>
+        <v>76</v>
+      </c>
+      <c r="B6" t="s">
+        <v>465</v>
       </c>
       <c r="C6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>436</v>
+        <v>435</v>
+      </c>
+      <c r="B7" t="s">
+        <v>465</v>
       </c>
       <c r="C7" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>437</v>
+        <v>436</v>
+      </c>
+      <c r="B8" t="s">
+        <v>465</v>
       </c>
       <c r="C8" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>123456</v>
+      </c>
+      <c r="B9" t="s">
+        <v>465</v>
+      </c>
+      <c r="C9" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
+        <v>446</v>
+      </c>
+      <c r="B10" t="s">
+        <v>465</v>
+      </c>
+      <c r="C10" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
         <v>441</v>
       </c>
-      <c r="C9" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="13" t="s">
-        <v>448</v>
-      </c>
-      <c r="C10" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="13" t="s">
-        <v>443</v>
+      <c r="B11" t="s">
+        <v>465</v>
       </c>
       <c r="C11" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>444</v>
+        <v>442</v>
+      </c>
+      <c r="B12" t="s">
+        <v>465</v>
       </c>
       <c r="C12" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
   </sheetData>
@@ -6487,108 +6581,141 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="73.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="8.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="52.42578125" collapsed="true"/>
+    <col min="1" max="1" width="73.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="8.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="52.42578125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="14" t="s">
         <v>403</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="15" t="s">
         <v>404</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="16" t="s">
         <v>405</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
-        <v>449</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>450</v>
+      <c r="A2" s="12" t="s">
+        <v>447</v>
+      </c>
+      <c r="B2" t="s">
+        <v>465</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>448</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>451</v>
+        <v>449</v>
+      </c>
+      <c r="B3" t="s">
+        <v>465</v>
       </c>
       <c r="C3" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>18</v>
       </c>
+      <c r="B4" t="s">
+        <v>465</v>
+      </c>
       <c r="C4" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>454</v>
+        <v>452</v>
+      </c>
+      <c r="B5" t="s">
+        <v>465</v>
       </c>
       <c r="C5" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>455</v>
+        <v>453</v>
+      </c>
+      <c r="B6" t="s">
+        <v>465</v>
       </c>
       <c r="C6" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>456</v>
+        <v>454</v>
+      </c>
+      <c r="B7" t="s">
+        <v>465</v>
       </c>
       <c r="C7" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
-        <v>457</v>
+      <c r="A8" s="13" t="s">
+        <v>455</v>
+      </c>
+      <c r="B8" t="s">
+        <v>465</v>
       </c>
       <c r="C8" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>458</v>
+        <v>456</v>
+      </c>
+      <c r="B9" t="s">
+        <v>465</v>
       </c>
       <c r="C9" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>105</v>
       </c>
+      <c r="B10" t="s">
+        <v>465</v>
+      </c>
       <c r="C10" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>18</v>
       </c>
+      <c r="B11" t="s">
+        <v>465</v>
+      </c>
       <c r="C11" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="18" t="s">
         <v>107</v>
       </c>
+      <c r="B12" t="s">
+        <v>465</v>
+      </c>
       <c r="C12" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
   </sheetData>
@@ -6608,42 +6735,42 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="56.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="9.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="84.42578125" collapsed="true"/>
+    <col min="1" max="1" width="56.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="9.5703125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="84.42578125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="14" t="s">
         <v>403</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="15" t="s">
         <v>404</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="16" t="s">
         <v>405</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="12" t="s">
+        <v>466</v>
+      </c>
+      <c r="B2" t="s">
+        <v>465</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="19" t="s">
         <v>468</v>
       </c>
-      <c r="B2" t="s">
-        <v>467</v>
-      </c>
-      <c r="C2" s="13" t="s">
+      <c r="B3" t="s">
+        <v>465</v>
+      </c>
+      <c r="C3" t="s">
         <v>469</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
-        <v>470</v>
-      </c>
-      <c r="B3" t="s">
-        <v>467</v>
-      </c>
-      <c r="C3" t="s">
-        <v>471</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -6651,21 +6778,21 @@
         <v>79</v>
       </c>
       <c r="B4" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C4" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B5" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C5" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -6673,76 +6800,76 @@
         <v>164</v>
       </c>
       <c r="B6" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C6" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="13" t="s">
         <v>425</v>
       </c>
       <c r="B7" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C7" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B8" t="s">
-        <v>467</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>476</v>
+        <v>465</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>477</v>
+      </c>
+      <c r="B9" t="s">
+        <v>465</v>
+      </c>
+      <c r="C9" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="18" t="s">
+        <v>478</v>
+      </c>
+      <c r="B10" t="s">
+        <v>465</v>
+      </c>
+      <c r="C10" t="s">
         <v>479</v>
       </c>
-      <c r="B9" t="s">
-        <v>467</v>
-      </c>
-      <c r="C9" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="19" t="s">
-        <v>480</v>
-      </c>
-      <c r="B10" t="s">
-        <v>467</v>
-      </c>
-      <c r="C10" t="s">
-        <v>481</v>
-      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
-        <v>457</v>
+      <c r="A11" s="13" t="s">
+        <v>455</v>
       </c>
       <c r="B11" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C11" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B12" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C12" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -6750,10 +6877,10 @@
         <v>105</v>
       </c>
       <c r="B13" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C13" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -6761,37 +6888,37 @@
         <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C14" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="14" t="s">
-        <v>484</v>
+      <c r="A15" s="13" t="s">
+        <v>482</v>
       </c>
       <c r="B15" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C15" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="19"/>
+      <c r="A16" s="18"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="19"/>
+      <c r="A17" s="18"/>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="19"/>
+      <c r="A19" s="18"/>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="19"/>
+      <c r="A20" s="18"/>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="19"/>
+      <c r="A21" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6799,7 +6926,7 @@
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
   <controls>
-    <mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1025" r:id="rId4" name="Control 1">
           <controlPr defaultSize="0" r:id="rId5">
